--- a/数据库.xlsx
+++ b/数据库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="15330" windowHeight="8330" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="MySQL" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="445">
   <si>
     <t>https://www.nowcoder.com/discuss/637486?type=post&amp;order=time&amp;pos=&amp;page=1&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_post_nctrack</t>
   </si>
@@ -114,6 +114,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>非关系型数据库又被称为 NoSQL（Not Only SQL)，意为不仅仅是 SQL。通常指数据以</t>
     </r>
     <r>
@@ -194,6 +199,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>MySQL支持多种存储引擎,比如</t>
     </r>
     <r>
@@ -266,6 +276,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>mysql是关系型数据库，主要用于存放持久化数据，数据存在</t>
     </r>
     <r>
@@ -427,6 +442,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>确保每列保持</t>
     </r>
     <r>
@@ -452,6 +472,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>确保每列都和主键相关,而</t>
     </r>
     <r>
@@ -477,6 +502,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>确保</t>
     </r>
     <r>
@@ -548,6 +578,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>FLOAT、DOUBLE及DECIMAL为浮点数类型，DECIMAL是利用</t>
     </r>
     <r>
@@ -641,6 +676,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">比较常用的有year、time、date、datetime、timestamp等
 </t>
     </r>
@@ -671,6 +711,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>索引是对数据库表的一</t>
     </r>
     <r>
@@ -852,6 +897,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>提高数据检索的效率</t>
     </r>
     <r>
@@ -886,6 +937,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>索引会</t>
     </r>
     <r>
@@ -938,6 +994,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>索引的数据结构主要有</t>
     </r>
     <r>
@@ -990,6 +1051,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>包括主键索引，普通索引，聚集索引，覆盖索引，组合索引，前缀索引，唯一索引等，默认使用</t>
     </r>
     <r>
@@ -1012,6 +1078,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>主键索引：数据行没有相同的键值，</t>
     </r>
     <r>
@@ -1094,6 +1165,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>B+树具有</t>
     </r>
     <r>
@@ -1179,6 +1255,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>B树适用于</t>
     </r>
     <r>
@@ -1319,6 +1400,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>哈希索引是基于哈希表实现的，对于</t>
     </r>
     <r>
@@ -1429,6 +1515,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>哈希索引</t>
     </r>
     <r>
@@ -1559,6 +1650,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>一般用于查找文本中的</t>
     </r>
     <r>
@@ -1618,6 +1714,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>对于</t>
     </r>
     <r>
@@ -1751,6 +1852,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>表中数据要满足条件：
 1.数据量很大
 2.数据是</t>
@@ -1778,6 +1884,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">实现：定义表时添加 </t>
     </r>
     <r>
@@ -1827,6 +1938,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>从最左边为起点开始</t>
     </r>
     <r>
@@ -1858,6 +1974,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>例如建立索引(a,b,c)
 select * from table_name where  b = 1    没有用到索引，因为不是从最左边开始匹配的
 select * from table_name where a = 1 and c = 2  只有a列用到索引，c没有用到索引，因为中间跳过了b，不是从最左开始</t>
@@ -1905,6 +2026,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">外键用来建立主表与从表的关联关系，为两个表的数据建立连接，约束两个表中数据的一致性和完整性，主键所在的表就是主表（父表），外键所在的表就是从表（子表）
 </t>
     </r>
@@ -1969,6 +2095,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>数据库事务(Database Transaction) ，是指作为</t>
     </r>
     <r>
@@ -2062,6 +2193,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>（</t>
     </r>
     <r>
@@ -2087,6 +2223,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>（</t>
     </r>
     <r>
@@ -2126,6 +2267,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>首先在内存中修改数据，修改后，内存中的日志记录下来；
 提交（commit）事务。内存中的</t>
     </r>
@@ -2221,6 +2367,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>（savepoint）指事务处理中设置的</t>
     </r>
     <r>
@@ -2263,6 +2414,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>数据库事务(transaction)是访问并可能操作各种数据项的一个</t>
     </r>
     <r>
@@ -2325,6 +2481,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>包含事务的操作要么</t>
     </r>
     <r>
@@ -2350,6 +2511,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>事务执行的结果使数据库从一个</t>
     </r>
     <r>
@@ -2544,6 +2710,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>事务一旦</t>
     </r>
     <r>
@@ -2633,6 +2804,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>事务A读取了事务B</t>
     </r>
     <r>
@@ -2675,6 +2851,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>事务A</t>
     </r>
     <r>
@@ -2751,6 +2932,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>当用户</t>
     </r>
     <r>
@@ -2808,6 +2994,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>小结：不可重复读的和幻读很容易混淆，不可重复读侧重于</t>
     </r>
     <r>
@@ -2925,6 +3116,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>SQL标准定义了4类隔离级别，包括了一些具体规则，用来限定</t>
     </r>
     <r>
@@ -2993,6 +3190,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>在该隔离级别，所有事务都可以</t>
     </r>
     <r>
@@ -3018,6 +3221,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>大多数数据库系统的默认隔离级别（但不是MySQL默认的）。它满足了隔离的简单定义：一个事务</t>
     </r>
     <r>
@@ -3060,6 +3269,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>MySQL的默认</t>
     </r>
     <r>
@@ -3229,6 +3445,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>最高的隔离级别，它通过</t>
     </r>
     <r>
@@ -3268,6 +3490,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>读未提交（</t>
     </r>
     <r>
@@ -3275,7 +3503,6 @@
         <sz val="10.5"/>
         <color indexed="63"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>read-uncommitted</t>
@@ -3298,6 +3525,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>读已提交</t>
     </r>
     <r>
@@ -3305,7 +3538,6 @@
         <sz val="10.5"/>
         <color indexed="63"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>/</t>
@@ -3324,7 +3556,6 @@
         <sz val="10.5"/>
         <color indexed="63"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>read-committed</t>
@@ -3344,6 +3575,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>可重复读（</t>
     </r>
     <r>
@@ -3351,7 +3588,6 @@
         <sz val="10.5"/>
         <color indexed="63"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>repeatable-read</t>
@@ -3378,6 +3614,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>串行化（</t>
     </r>
     <r>
@@ -3385,7 +3627,6 @@
         <sz val="10.5"/>
         <color indexed="63"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>serializable</t>
@@ -3412,6 +3653,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color rgb="FF333333"/>
+        <rFont val="Helvetica"/>
+        <charset val="0"/>
+      </rPr>
       <t xml:space="preserve">MVCC </t>
     </r>
     <r>
@@ -3439,7 +3686,6 @@
         <sz val="10.5"/>
         <color indexed="63"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>Next-Key Locks</t>
@@ -3449,7 +3695,6 @@
         <sz val="10.5"/>
         <color indexed="63"/>
         <rFont val="Helvetica"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -3472,6 +3717,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>应该</t>
     </r>
     <r>
@@ -3584,6 +3834,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>为了</t>
     </r>
     <r>
@@ -3620,6 +3875,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>一个事务对数据对象A加了X锁，就可以对 A 进行</t>
     </r>
     <r>
@@ -3740,6 +4000,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>InnoDB 为了支持多粒度的加锁，</t>
     </r>
     <r>
@@ -3771,6 +4036,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>在存在行级锁和表级锁的情况下，事务 T 想要对表 A 加 X 锁，就需要先检测是否有其它事务对表 A 或者表 A 中的任意一行加了锁，那么就需要对表 A 的</t>
     </r>
     <r>
@@ -3793,6 +4063,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>IX/IS 都是</t>
     </r>
     <r>
@@ -3855,6 +4130,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>通过引入意向锁，事务 T 想要对表 A 加 X 锁，只需要</t>
     </r>
     <r>
@@ -3914,6 +4194,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>InnoDB</t>
     </r>
     <r>
@@ -4033,6 +4319,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>锁是如何添加到对应的数据行上的：</t>
     </r>
     <r>
@@ -4048,6 +4339,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">MySQL 的 </t>
     </r>
     <r>
@@ -4068,6 +4364,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>MySQL中最基本的锁策略，且</t>
     </r>
     <r>
@@ -4162,6 +4463,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>行级锁可以最大程度地支持</t>
     </r>
     <r>
@@ -4273,6 +4579,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>介于行级锁和表级锁中间，一次</t>
     </r>
     <r>
@@ -4309,6 +4620,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.合理的设计索引，</t>
     </r>
     <r>
@@ -4386,6 +4702,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>SQL 语句</t>
     </r>
     <r>
@@ -4478,6 +4799,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>CREATE TABLE</t>
     </r>
     <r>
@@ -4510,6 +4837,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>如果一个字段中没有指定DEFAULT修饰符，MySQL 会依据这个字段是 NULL 还是 NOT NULL 自动设置默认值。
 如果指定字段可以为NULL，则 MySQL为其设置默认值为 NULL。
 如果是NOT NULL字段，MySQL 对于</t>
@@ -4606,6 +4938,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.创建表时指定：
     某列的定义后加 UNIQUE（唯一索引） [ INDEX （普通索引） | KEY] [&lt;索引名&gt;] [&lt;索引类型&gt;] (&lt;列名&gt;,…)
     UNIQUE [KEY] [indexName] (username(length))  
@@ -4731,6 +5068,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>replace into t1(col1,col2) values(v1, v2)
 replace into t1(col1, col2) select v1, v2
 replace into 跟 insert 功能类似，不同点在于：replace into 首先尝试插入数据到表中， 1. 如果发现表中已经有此行数据（</t>
@@ -4764,6 +5106,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>DELETE FROM</t>
     </r>
     <r>
@@ -4788,6 +5136,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>truncate:只能操作表，</t>
     </r>
     <r>
@@ -5027,6 +5380,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">SELECT </t>
     </r>
     <r>
@@ -5066,6 +5424,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>AND和OR用于连接多个过滤条件。优先处理AND，当一个过滤表达式涉及到多个AND 和OR时，可用 () 来决定优先级，使得优先级更清晰
 IN 操作符用于</t>
     </r>
@@ -5110,6 +5473,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">SELECT *
 FROM mytable
 </t>
@@ -5134,6 +5502,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">SELECT *
 FROM mytable
 </t>
@@ -5191,6 +5564,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>如果第一个查询返回 M 行，第二个查询返回 N 行，那么组合查询的结果一般为</t>
     </r>
     <r>
@@ -5250,6 +5628,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">SELECT col
 FROM mytable
 WHERE col = 1
@@ -5328,6 +5711,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">UPDATE salary
 SET
     sex = </t>
@@ -5421,6 +5809,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>判断第一个参数expr1是否为NULL：
 如果expr1不为空，直接返回expr1；
 如果expr1</t>
@@ -5458,6 +5851,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>在数据库服务器上完成数据的转换和格式化的工作往往比客户端上</t>
     </r>
     <r>
@@ -5547,6 +5945,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>SELECT CONCAT(TRIM(col1), '(', TRIM(col2), ')') AS concat_col
 FROM mytable;
 # CONCAT() 用于</t>
@@ -5592,6 +5995,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>把具有相同的数据值的行放在同一组中,进行分组统计
 可以对同一分组数据使用</t>
     </r>
@@ -5615,6 +6023,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">GROUP BY 子句出现在 </t>
     </r>
     <r>
@@ -5693,6 +6106,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">SELECT col, COUNT(*) AS num
 FROM mytable
 WHERE col &gt; 2
@@ -5756,6 +6174,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>视图是从一个或多个表导出的虚拟的表，其内容由查询得到。具有普通表的结构，但是不实现数据存储
 视图就像一个窗口，透过它可以看到数据库中自己感兴趣的数据及其变化
 视图是</t>
@@ -5848,6 +6271,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>触发器会在某个表</t>
     </r>
     <r>
@@ -6024,6 +6452,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>用于连接多个表，使用 JOIN 关键字，并且</t>
     </r>
     <r>
@@ -6089,6 +6522,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>也称为等值连接，返回</t>
     </r>
     <r>
@@ -6138,6 +6576,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">SELECT A.value, B.value
 FROM tablea AS A </t>
     </r>
@@ -6168,6 +6611,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">SELECT e1.name
 FROM </t>
     </r>
@@ -6263,6 +6711,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">自然连接是一种特殊的等值连接，他要求两个关系表中进行比较的必须是相同的属性列，无须添加连接条件，
 并且在结果中消除重复的属性列
 </t>
@@ -6298,6 +6751,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">SELECT Customers.cust_id, Customer.cust_name, Orders.order_id
 FROM Customers </t>
     </r>
@@ -6342,6 +6800,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>内连接：只有</t>
     </r>
     <r>
@@ -6455,6 +6918,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>主键是数据库确保</t>
     </r>
     <r>
@@ -6531,6 +6999,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>null值会</t>
     </r>
     <r>
@@ -6556,6 +7029,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>密码散列,盐,用户身份证号等固定长度的字符串应该使用</t>
     </r>
     <r>
@@ -6607,6 +7085,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>char是一个定长字段,假如申请了 char(10) 的空间,那么无论实际存储多少内容.该字段都占用10个字符,而varchar是变长的,也就是说申请的只是最大长度,占用的空间为实际字符长度+1,最后一个字符存储使用了多长的空间.
 在</t>
     </r>
@@ -6667,6 +7150,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>varchar的10代表了</t>
     </r>
     <r>
@@ -6743,6 +7231,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>建立索引的时候一般要考虑到</t>
     </r>
     <r>
@@ -6819,6 +7312,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>MySQL可以使用</t>
     </r>
     <r>
@@ -6878,6 +7376,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>MySQL使用索引时需要索引有序,假设现在建立了"name,age,school"的联合索引,那么索引的排序为: 先按照name排序,如果</t>
     </r>
     <r>
@@ -7297,6 +7800,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>using filesort:会对数据使用一个外部的索引排序，而不是按表内的索引顺序。即排序没有使用索引，成为文件排序
 using temporary: 使用了临时表
 using where; Using index ： 表示用到了索引覆盖，且对索引做了where筛选，这里不需要回表；索引被用来执行索引键值的查找
@@ -7327,6 +7835,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>using index condition：默认为开启状态。ICP用于当MySQL想要</t>
     </r>
     <r>
@@ -7388,6 +7901,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">从4.1开始，每个字符串列可定义自己的字符集和排序规则
 varchar: 比定长的更节省空间。使用：最大长度比平均的大很多、使用utf-8字符集。 </t>
     </r>
@@ -7450,6 +7968,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>条件带</t>
     </r>
     <r>
@@ -7524,6 +8047,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.不能在表达式/函数中
 2.长字符列：模拟哈希索引或使用</t>
     </r>
@@ -7671,6 +8199,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>聚簇索引：</t>
     </r>
     <r>
@@ -7732,6 +8265,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.扫描大部分行但只返回很少的：用</t>
     </r>
     <r>
@@ -7854,6 +8392,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.union：除非要去重，否则用</t>
     </r>
     <r>
@@ -7929,6 +8472,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>SET NAMES utf8mb4;</t>
     </r>
     <r>
@@ -7959,6 +8508,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>单库单表下越来越不满足需求，此时我们先考虑进行读写分离。我们将数据库的写操作和读操作进行分离， 使用多个从库副本（Slaver）负责</t>
     </r>
     <r>
@@ -8018,6 +8572,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>把一张表的数据分成多个区块，在</t>
     </r>
     <r>
@@ -8058,7 +8617,25 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">分区类型：
+      <t xml:space="preserve">详细见博客： </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://so.csdn.net/so/search?q=mysql%20%E5%88%86%E5%8C%BA&amp;t=blog&amp;u=yinjinshui</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+分区类型：
 </t>
     </r>
     <r>
@@ -8130,7 +8707,162 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>：类似于按HASH分区，区别在于KEY分区只支持计算一列或多列，且使用MySQL 服务器提供的自身的哈希函数。</t>
+      <t xml:space="preserve">：类似于按HASH分区，区别在于KEY分区只支持计算一列或多列，且使用MySQL 服务器提供的自身的哈希函数。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>二级分区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>： 二级分区可以理解为按</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>队列方式</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>管理分区个数，当超过</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>最大定义数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，最小值分区</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自动删除</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">，循环使用空间，所以二级分区是自动清除历史数据
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子分区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>subpartition</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)：  分区表中对</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>每个分区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>再次分割</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，又被称为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>复合分区</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，目前只有RANGE和LIST分区的表可以再进行子分区，子分区只能是HASH或者KEY分区</t>
     </r>
   </si>
   <si>
@@ -8141,6 +8873,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>垂直分表</t>
     </r>
     <r>
@@ -8154,6 +8892,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>水平分表</t>
     </r>
     <r>
@@ -8170,6 +8914,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>垂直分库</t>
     </r>
     <r>
@@ -8217,6 +8967,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>水平分库</t>
     </r>
     <r>
@@ -8264,6 +9020,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>分库分表之后的</t>
     </r>
     <r>
@@ -8278,6 +9039,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1、联合查询困难</t>
     </r>
     <r>
@@ -8400,6 +9167,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>分表和分区的</t>
     </r>
     <r>
@@ -8414,6 +9186,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.分区只是</t>
     </r>
     <r>
@@ -8528,27 +9305,34 @@
   </si>
   <si>
     <r>
-      <t>与本地事务不同的是，分布式系统之所以叫分布式，是因为</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <rPr>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>提供服务的各个节点分布在不同机器</t>
-    </r>
-    <r>
-      <rPr>
+      <t>与本地事务不同的是，分布式系统之所以叫分布式，是因为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>提供服务的各个节点分布在不同机器</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>上，相互之间通过网络交互。不能因为有一点网络问题就导致整个系统无法提供服务，网络因素成为了分布式事务的考量标准之一</t>
     </r>
   </si>
@@ -8557,6 +9341,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Consistency、Availability、Partition tolerance 
 一致性、可用性、分区容忍性
 一个分布式系统最多只能同时满足其中</t>
@@ -8599,6 +9390,27 @@
   </si>
   <si>
     <t>2PC、3PC、TCC、可靠消息最终一致性、最大努力通知</t>
+  </si>
+  <si>
+    <t>产品家族</t>
+  </si>
+  <si>
+    <t>ODC</t>
+  </si>
+  <si>
+    <t>开发者工作平台：  连接管理，SQL工作台，存储过程开发测试，导入导出</t>
+  </si>
+  <si>
+    <t>OMS</t>
+  </si>
+  <si>
+    <t>数据库迁移平台： 可在不停服情况下将数据迁移至OB服务器</t>
+  </si>
+  <si>
+    <t>OCP</t>
+  </si>
+  <si>
+    <t>运维平台： 集群管理，租户管理，监控告警，性能诊断</t>
   </si>
   <si>
     <t>核心特性</t>
@@ -8672,6 +9484,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>每个OB Server都运行数据库的内核，有自己独立的SQL引擎，存储引擎，都可接收应用的访问，都存储了一部分数据库的数据
 一个Server运行一个OB进程
 Server的多个分区中只存储一部分数据，需要更多数据时（访问任</t>
@@ -8721,6 +9540,11 @@
   </si>
   <si>
     <t>租户</t>
+  </si>
+  <si>
+    <t>租户的概念类似于传统数据库的数据库实例。租户下可以建立数据库，在租户的数据库下可以建立表。
+目前支持两种不同的租户类型：MySQL 租户和 Oracle 租户。使用不同类型的租户对应不同类型的语法和功能
+支持租户隔离。每个租户可以被赋于一定的资源（比如 CPU，内存，IOPS 和磁盘空间）。通过资源配置和设定资源池可以实现对租户资源的控制。</t>
   </si>
   <si>
     <t>资源池</t>
@@ -8801,7 +9625,6 @@
       <sz val="10.5"/>
       <color rgb="FF333333"/>
       <name val="Helvetica"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -8815,7 +9638,6 @@
       <sz val="12"/>
       <color rgb="FF24292E"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -8824,13 +9646,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -8998,7 +9813,6 @@
       <sz val="10.5"/>
       <color indexed="63"/>
       <name val="Helvetica"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -9019,12 +9833,17 @@
       <sz val="10.5"/>
       <color indexed="63"/>
       <name val="Helvetica"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -9355,46 +10174,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -9406,103 +10228,103 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9511,6 +10333,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
@@ -9526,16 +10351,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -9545,9 +10364,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -9573,9 +10389,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -9588,9 +10401,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -9599,9 +10409,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center" wrapText="1"/>
@@ -9702,8 +10509,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11217910" y="61866780"/>
-          <a:ext cx="1972310" cy="2225040"/>
+          <a:off x="11251565" y="59531250"/>
+          <a:ext cx="2175510" cy="2127250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9744,8 +10551,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13418820" y="75231625"/>
-          <a:ext cx="2537460" cy="3779520"/>
+          <a:off x="13655675" y="72380475"/>
+          <a:ext cx="2588260" cy="3605530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9786,8 +10593,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9697720" y="76862940"/>
-          <a:ext cx="3865880" cy="12313285"/>
+          <a:off x="9731375" y="73914000"/>
+          <a:ext cx="4081780" cy="11848465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9828,8 +10635,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13464540" y="78958440"/>
-          <a:ext cx="1630680" cy="8815705"/>
+          <a:off x="13701395" y="75933300"/>
+          <a:ext cx="1668780" cy="8480425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9870,8 +10677,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11208385" y="71666100"/>
-          <a:ext cx="2339975" cy="3088005"/>
+          <a:off x="11242040" y="68929250"/>
+          <a:ext cx="2555875" cy="2973705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9912,8 +10719,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11468100" y="89251790"/>
-          <a:ext cx="3627120" cy="6668770"/>
+          <a:off x="11679555" y="85838030"/>
+          <a:ext cx="3690620" cy="6402070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9954,8 +10761,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11529060" y="95912940"/>
-          <a:ext cx="3566160" cy="3733800"/>
+          <a:off x="11740515" y="92232480"/>
+          <a:ext cx="3629660" cy="3596640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10001,8 +10808,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5760720" y="1119505"/>
-          <a:ext cx="4290695" cy="2225675"/>
+          <a:off x="5793105" y="1089025"/>
+          <a:ext cx="4443095" cy="2164715"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10043,8 +10850,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="635" y="1073785"/>
-          <a:ext cx="5525135" cy="3216275"/>
+          <a:off x="635" y="1048385"/>
+          <a:ext cx="5557520" cy="3124835"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10066,13 +10873,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>6416675</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -10090,8 +10897,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="906780" y="5204460"/>
-          <a:ext cx="7521575" cy="2941320"/>
+          <a:off x="923290" y="5773420"/>
+          <a:ext cx="7541895" cy="2860040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10396,2112 +11203,2109 @@
   <sheetPr/>
   <dimension ref="A1:E249"/>
   <sheetViews>
-    <sheetView topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="C254" sqref="C254"/>
+    <sheetView topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A153" sqref="A153:A154"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15.6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.5555555555556" style="5" customWidth="1"/>
-    <col min="2" max="2" width="10.7777777777778" style="6" customWidth="1"/>
-    <col min="3" max="3" width="140.111111111111" style="5" customWidth="1"/>
-    <col min="4" max="16384" width="10" style="5"/>
+    <col min="1" max="1" width="15.5545454545455" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.7818181818182" style="8" customWidth="1"/>
+    <col min="3" max="3" width="140.109090909091" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="10" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" spans="2:3">
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+    <row r="1" s="7" customFormat="1" spans="2:3">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="1" spans="2:3">
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+    <row r="2" s="7" customFormat="1" spans="2:3">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="5" customFormat="1" spans="1:3">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="7" customFormat="1" spans="1:3">
+      <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="5" customFormat="1" spans="1:3">
-      <c r="A4" s="5" t="s">
+    <row r="4" s="7" customFormat="1" spans="1:3">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="5" customFormat="1" spans="2:3">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-    </row>
-    <row r="6" s="5" customFormat="1" ht="93.6" spans="1:3">
-      <c r="A6" s="8" t="s">
+    <row r="5" s="7" customFormat="1" spans="2:3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+    </row>
+    <row r="6" s="7" customFormat="1" ht="90" spans="1:3">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A7" s="10" t="s">
+    <row r="7" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="5" customFormat="1" ht="78" spans="1:3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="6" t="s">
+    <row r="8" s="7" customFormat="1" ht="75" spans="1:3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A9" s="10" t="s">
+    <row r="9" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" s="5" customFormat="1" ht="93.6" spans="1:3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="6" t="s">
+    <row r="10" s="7" customFormat="1" ht="90" spans="1:3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A11" s="6" t="s">
+    <row r="11" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6" t="s">
+    <row r="12" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6" t="s">
+    <row r="13" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="11" t="s">
+    <row r="14" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" s="5" customFormat="1" spans="1:3">
-      <c r="A15" s="10" t="s">
+    <row r="15" s="7" customFormat="1" spans="1:3">
+      <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10" t="s">
+    <row r="16" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" s="5" customFormat="1" spans="1:3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10" t="s">
+    <row r="17" s="7" customFormat="1" spans="1:3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" s="5" customFormat="1" ht="93.6" spans="1:3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10" t="s">
+    <row r="18" s="7" customFormat="1" ht="90" spans="1:3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="10" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A19" s="10" t="s">
+    <row r="19" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A19" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="9" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10" t="s">
+    <row r="20" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11" t="s">
         <v>36</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6" t="s">
+    <row r="21" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10" t="s">
+    <row r="22" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" s="5" customFormat="1" spans="1:3">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10" t="s">
+    <row r="23" s="7" customFormat="1" spans="1:3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" s="5" customFormat="1" ht="109.2" spans="1:3">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="9" t="s">
+    <row r="24" s="7" customFormat="1" ht="105" spans="1:3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10" t="s">
+    <row r="25" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="10" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" s="5" customFormat="1" spans="1:3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="6" t="s">
+    <row r="26" s="7" customFormat="1" spans="1:3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" s="5" customFormat="1" ht="124.8" spans="1:3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10" t="s">
+    <row r="27" s="7" customFormat="1" ht="120" spans="1:3">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="10" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A28" s="10"/>
-      <c r="B28" s="6" t="s">
+    <row r="28" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A28" s="11"/>
+      <c r="B28" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10" t="s">
+    <row r="29" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" s="5" customFormat="1" spans="1:3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="6" t="s">
+    <row r="30" s="7" customFormat="1" spans="1:3">
+      <c r="A30" s="11"/>
+      <c r="B30" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" s="5" customFormat="1" ht="109.2" spans="1:3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="6" t="s">
+    <row r="31" s="7" customFormat="1" ht="105" spans="1:3">
+      <c r="A31" s="11"/>
+      <c r="B31" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="10" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A32" s="10"/>
+    <row r="32" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A32" s="11"/>
       <c r="B32" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" s="5" customFormat="1" spans="1:3">
-      <c r="A33" s="10"/>
+    <row r="33" s="7" customFormat="1" spans="1:3">
+      <c r="A33" s="11"/>
       <c r="B33" s="13"/>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" s="5" customFormat="1" spans="1:3">
-      <c r="A34" s="10"/>
+    <row r="34" s="7" customFormat="1" spans="1:3">
+      <c r="A34" s="11"/>
       <c r="B34" s="13"/>
       <c r="C34" s="14" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" s="5" customFormat="1" spans="1:3">
-      <c r="A35" s="10"/>
-      <c r="B35" s="6" t="s">
+    <row r="35" s="7" customFormat="1" spans="1:3">
+      <c r="A35" s="11"/>
+      <c r="B35" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" s="5" customFormat="1" spans="1:3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="6" t="s">
+    <row r="36" s="7" customFormat="1" spans="1:3">
+      <c r="A36" s="11"/>
+      <c r="B36" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" s="5" customFormat="1" spans="1:3">
-      <c r="A37" s="10"/>
-      <c r="B37" s="6" t="s">
+    <row r="37" s="7" customFormat="1" spans="1:3">
+      <c r="A37" s="11"/>
+      <c r="B37" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A38" s="10"/>
-      <c r="B38" s="15" t="s">
+    <row r="38" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" s="5" customFormat="1" spans="1:3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="15" t="s">
+    <row r="39" s="7" customFormat="1" spans="1:3">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" s="5" customFormat="1" ht="93.6" spans="1:3">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="9" t="s">
+    <row r="40" s="7" customFormat="1" ht="90" spans="1:3">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="10" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" s="5" customFormat="1" ht="78" spans="1:3">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10" t="s">
+    <row r="41" s="7" customFormat="1" ht="75" spans="1:3">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="9" t="s">
+    <row r="42" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="10" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" s="5" customFormat="1" ht="109.2" spans="1:3">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="9" t="s">
+    <row r="43" s="7" customFormat="1" ht="105" spans="1:3">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="10" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" s="5" customFormat="1" spans="1:3">
-      <c r="A44" s="15" t="s">
+    <row r="44" s="7" customFormat="1" spans="1:3">
+      <c r="A44" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="10" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A45" s="15"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="9" t="s">
+    <row r="45" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" s="5" customFormat="1" spans="1:3">
-      <c r="A46" s="15"/>
-      <c r="B46" s="15" t="s">
+    <row r="46" s="7" customFormat="1" spans="1:3">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="9" t="s">
+      <c r="C46" s="10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" s="5" customFormat="1" spans="1:3">
-      <c r="A47" s="15"/>
-      <c r="B47" s="15" t="s">
+    <row r="47" s="7" customFormat="1" spans="1:3">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="10" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" s="5" customFormat="1" ht="78" spans="1:3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="9" t="s">
+    <row r="48" s="7" customFormat="1" ht="75" spans="1:3">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="10" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" s="5" customFormat="1" spans="1:3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="15" t="s">
+    <row r="49" s="7" customFormat="1" spans="1:3">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="10" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A50" s="5" t="s">
+    <row r="50" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A50" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="6"/>
-      <c r="C50" s="9" t="s">
+      <c r="B50" s="8"/>
+      <c r="C50" s="10" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="51" s="5" customFormat="1" spans="1:3">
-      <c r="A51" s="10" t="s">
+    <row r="51" s="7" customFormat="1" spans="1:3">
+      <c r="A51" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="10" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" s="5" customFormat="1" ht="78" spans="1:3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="6" t="s">
+    <row r="52" s="7" customFormat="1" ht="75" spans="1:3">
+      <c r="A52" s="11"/>
+      <c r="B52" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="10" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="6" t="s">
+    <row r="53" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A53" s="11"/>
+      <c r="B53" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="10" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="6" t="s">
+    <row r="54" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A54" s="11"/>
+      <c r="B54" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="10" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" s="5" customFormat="1" spans="1:3">
-      <c r="A55" s="10" t="s">
+    <row r="55" s="7" customFormat="1" spans="1:3">
+      <c r="A55" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="10" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" s="5" customFormat="1" spans="1:3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="6" t="s">
+    <row r="56" s="7" customFormat="1" spans="1:3">
+      <c r="A56" s="11"/>
+      <c r="B56" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="6" t="s">
+    <row r="57" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A57" s="11"/>
+      <c r="B57" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="6"/>
-      <c r="C58" s="9" t="s">
+    <row r="58" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A58" s="11"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="10" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="59" s="5" customFormat="1" ht="86.4" spans="1:3">
-      <c r="A59" s="10" t="s">
+    <row r="59" s="7" customFormat="1" ht="84" spans="1:3">
+      <c r="A59" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="6"/>
-      <c r="C59" s="16" t="s">
+      <c r="B59" s="8"/>
+      <c r="C59" s="15" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" s="5" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="6"/>
-      <c r="C60" s="17" t="s">
+    <row r="60" s="7" customFormat="1" ht="28" spans="1:3">
+      <c r="A60" s="11"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="16" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10" t="s">
+    <row r="61" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="17" t="s">
+      <c r="C61" s="16" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="62" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10" t="s">
+    <row r="62" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C62" s="17" t="s">
+      <c r="C62" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" s="5" customFormat="1" ht="43.2" spans="1:3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10" t="s">
+    <row r="63" s="7" customFormat="1" ht="42" spans="1:3">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C63" s="17" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" s="5" customFormat="1" ht="28.8" spans="1:3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="6" t="s">
+    <row r="64" s="7" customFormat="1" ht="28" spans="1:3">
+      <c r="A64" s="11"/>
+      <c r="B64" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="17" t="s">
+      <c r="C64" s="16" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="65" s="5" customFormat="1" spans="1:4">
-      <c r="A65" s="19" t="s">
+    <row r="65" s="7" customFormat="1" spans="1:4">
+      <c r="A65" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="19" t="s">
+      <c r="C65" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="19" t="s">
+      <c r="D65" s="18" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="66" s="5" customFormat="1" ht="28.8" spans="1:5">
-      <c r="A66" s="20" t="s">
+    <row r="66" s="7" customFormat="1" ht="27" spans="1:5">
+      <c r="A66" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="B66" s="21" t="s">
+      <c r="B66" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="C66" s="21" t="s">
+      <c r="C66" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D66" s="21" t="s">
+      <c r="D66" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="5" t="s">
+      <c r="E66" s="7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" s="5" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A67" s="20" t="s">
+    <row r="67" s="7" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A67" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="21" t="s">
+      <c r="B67" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="21" t="s">
+      <c r="C67" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D67" s="21" t="s">
+      <c r="D67" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="68" s="5" customFormat="1" ht="43.2" spans="1:4">
-      <c r="A68" s="20" t="s">
+    <row r="68" s="7" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A68" s="19" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="21" t="s">
+      <c r="B68" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="21" t="s">
+      <c r="C68" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D68" s="21" t="s">
+      <c r="D68" s="20" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="69" s="5" customFormat="1" ht="69" customHeight="1" spans="1:5">
-      <c r="A69" s="20" t="s">
+    <row r="69" s="7" customFormat="1" ht="69" customHeight="1" spans="1:5">
+      <c r="A69" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="21" t="s">
+      <c r="B69" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="21" t="s">
+      <c r="C69" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D69" s="21" t="s">
+      <c r="D69" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="5" t="s">
+      <c r="E69" s="7" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70" s="5" customFormat="1" spans="1:4">
-      <c r="A70" s="22"/>
-      <c r="B70" s="22"/>
-      <c r="C70" s="22"/>
-      <c r="D70" s="22"/>
-    </row>
-    <row r="71" s="5" customFormat="1" ht="66" customHeight="1" spans="1:4">
-      <c r="A71" s="22" t="s">
+    <row r="70" s="7" customFormat="1" spans="1:4">
+      <c r="A70" s="21"/>
+      <c r="B70" s="21"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="21"/>
+    </row>
+    <row r="71" s="7" customFormat="1" ht="66" customHeight="1" spans="1:4">
+      <c r="A71" s="21" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="23" t="s">
+      <c r="B71" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="23"/>
-      <c r="D71" s="22"/>
-    </row>
-    <row r="72" s="5" customFormat="1" spans="1:3">
-      <c r="A72" s="22"/>
-      <c r="B72" s="22"/>
-      <c r="C72" s="22" t="s">
+      <c r="C71" s="22"/>
+      <c r="D71" s="21"/>
+    </row>
+    <row r="72" s="7" customFormat="1" spans="1:3">
+      <c r="A72" s="21"/>
+      <c r="B72" s="21"/>
+      <c r="C72" s="21" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" s="5" customFormat="1" spans="1:3">
-      <c r="A73" s="22"/>
-      <c r="B73" s="22"/>
-      <c r="C73" s="22"/>
-    </row>
-    <row r="74" s="5" customFormat="1" spans="2:2">
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" s="5" customFormat="1" spans="1:3">
-      <c r="A75" s="6" t="s">
+    <row r="73" s="7" customFormat="1" spans="1:3">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+    </row>
+    <row r="74" s="7" customFormat="1" spans="2:2">
+      <c r="B74" s="8"/>
+    </row>
+    <row r="75" s="7" customFormat="1" spans="1:3">
+      <c r="A75" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="6"/>
-      <c r="C75" s="11" t="s">
+      <c r="B75" s="8"/>
+      <c r="C75" s="10" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A76" s="6"/>
-      <c r="B76" s="6"/>
-      <c r="C76" s="9" t="s">
+    <row r="76" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="10" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A77" s="6"/>
-      <c r="B77" s="6" t="s">
+    <row r="77" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="10" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="78" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A78" s="6"/>
-      <c r="B78" s="6"/>
-      <c r="C78" s="11" t="s">
+    <row r="78" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="10" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="6"/>
-      <c r="C79" s="9" t="s">
+    <row r="79" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="10" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="80" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A80" s="6"/>
-      <c r="B80" s="6" t="s">
+    <row r="80" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="10" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="81" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A81" s="6"/>
-      <c r="B81" s="6"/>
-      <c r="C81" s="9" t="s">
+    <row r="81" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="10" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="82" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A82" s="6"/>
-      <c r="B82" s="6"/>
-      <c r="C82" s="9" t="s">
+    <row r="82" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="10" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="83" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A83" s="6"/>
-      <c r="B83" s="6"/>
-      <c r="C83" s="9" t="s">
+    <row r="83" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A84" s="6"/>
-      <c r="B84" s="6"/>
-      <c r="C84" s="9" t="s">
+    <row r="84" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A85" s="6"/>
-      <c r="B85" s="6" t="s">
+    <row r="85" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8" t="s">
         <v>143</v>
       </c>
       <c r="C85" s="12" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="86" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A86" s="6"/>
-      <c r="B86" s="6" t="s">
+    <row r="86" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="9" t="s">
+      <c r="C86" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="87" s="5" customFormat="1" spans="1:3">
-      <c r="A87" s="24" t="s">
+    <row r="87" s="7" customFormat="1" spans="1:3">
+      <c r="A87" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="6"/>
-      <c r="C87" s="6"/>
-    </row>
-    <row r="88" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A88" s="24" t="s">
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+    </row>
+    <row r="88" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A88" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="24" t="s">
+      <c r="B88" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="C88" s="9" t="s">
+      <c r="C88" s="10" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="89" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A89" s="24"/>
-      <c r="B89" s="24" t="s">
+    <row r="89" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="9" t="s">
+      <c r="C89" s="10" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="90" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A90" s="24"/>
-      <c r="B90" s="24" t="s">
+    <row r="90" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="9" t="s">
+      <c r="C90" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="91" s="5" customFormat="1" ht="78" spans="1:3">
-      <c r="A91" s="6" t="s">
+    <row r="91" s="7" customFormat="1" ht="75" spans="1:3">
+      <c r="A91" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="6"/>
-      <c r="C91" s="9" t="s">
+      <c r="B91" s="8"/>
+      <c r="C91" s="10" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="92" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A92" s="6"/>
-      <c r="B92" s="6" t="s">
+    <row r="92" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C92" s="9" t="s">
+      <c r="C92" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="93" s="5" customFormat="1" spans="1:3">
-      <c r="A93" s="6"/>
-      <c r="B93" s="6"/>
-      <c r="C93" s="9"/>
-    </row>
-    <row r="94" s="5" customFormat="1" spans="1:3">
-      <c r="A94" s="6"/>
-      <c r="B94" s="6"/>
-      <c r="C94" s="9"/>
-    </row>
-    <row r="95" s="5" customFormat="1" spans="1:3">
-      <c r="A95" s="6"/>
-      <c r="B95" s="6"/>
-      <c r="C95" s="9"/>
+    <row r="93" s="7" customFormat="1" spans="1:3">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="10"/>
+    </row>
+    <row r="94" s="7" customFormat="1" spans="1:3">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="10"/>
+    </row>
+    <row r="95" s="7" customFormat="1" spans="1:3">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="10"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="6"/>
-    </row>
-    <row r="97" s="5" customFormat="1" spans="1:3">
-      <c r="A97" s="6"/>
-      <c r="B97" s="6"/>
-      <c r="C97" s="9"/>
-    </row>
-    <row r="98" s="5" customFormat="1" spans="1:3">
-      <c r="A98" s="24" t="s">
+      <c r="A96" s="8"/>
+    </row>
+    <row r="97" s="7" customFormat="1" spans="1:3">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="10"/>
+    </row>
+    <row r="98" s="7" customFormat="1" spans="1:3">
+      <c r="A98" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B98" s="6"/>
-      <c r="C98" s="9" t="s">
+      <c r="B98" s="8"/>
+      <c r="C98" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="99" s="5" customFormat="1" spans="2:2">
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" s="5" customFormat="1" spans="1:3">
-      <c r="A100" s="25" t="s">
+    <row r="99" s="7" customFormat="1" spans="2:2">
+      <c r="B99" s="8"/>
+    </row>
+    <row r="100" s="7" customFormat="1" spans="1:3">
+      <c r="A100" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B100" s="26"/>
-      <c r="C100" s="26"/>
-    </row>
-    <row r="101" s="5" customFormat="1" spans="1:2">
-      <c r="A101" s="24" t="s">
+      <c r="B100" s="24"/>
+      <c r="C100" s="24"/>
+    </row>
+    <row r="101" s="7" customFormat="1" spans="1:2">
+      <c r="A101" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B101" s="24"/>
-    </row>
-    <row r="102" s="5" customFormat="1" spans="1:3">
-      <c r="A102" s="8" t="s">
+      <c r="B101" s="8"/>
+    </row>
+    <row r="102" s="7" customFormat="1" spans="1:3">
+      <c r="A102" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B102" s="6"/>
-      <c r="C102" s="8" t="s">
+      <c r="B102" s="8"/>
+      <c r="C102" s="7" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="103" s="5" customFormat="1" spans="1:3">
-      <c r="A103" s="8" t="s">
+    <row r="103" s="7" customFormat="1" spans="1:3">
+      <c r="A103" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B103" s="6"/>
-      <c r="C103" s="8" t="s">
+      <c r="B103" s="8"/>
+      <c r="C103" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="104" s="5" customFormat="1" spans="1:3">
-      <c r="A104" s="8" t="s">
+    <row r="104" s="7" customFormat="1" spans="1:3">
+      <c r="A104" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B104" s="6"/>
-      <c r="C104" s="8" t="s">
+      <c r="B104" s="8"/>
+      <c r="C104" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="105" s="5" customFormat="1" spans="1:3">
-      <c r="A105" s="8" t="s">
+    <row r="105" s="7" customFormat="1" spans="1:3">
+      <c r="A105" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="B105" s="6"/>
-      <c r="C105" s="8" t="s">
+      <c r="B105" s="8"/>
+      <c r="C105" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="106" s="5" customFormat="1" spans="2:3">
-      <c r="B106" s="6"/>
-      <c r="C106" s="8" t="s">
+    <row r="106" s="7" customFormat="1" spans="2:3">
+      <c r="B106" s="8"/>
+      <c r="C106" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="107" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A107" s="24" t="s">
+    <row r="107" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A107" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="B107" s="6"/>
-      <c r="C107" s="9" t="s">
+      <c r="B107" s="8"/>
+      <c r="C107" s="10" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="108" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A108" s="8" t="s">
+    <row r="108" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A108" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="B108" s="6"/>
-      <c r="C108" s="9" t="s">
+      <c r="B108" s="8"/>
+      <c r="C108" s="10" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="109" s="5" customFormat="1" ht="171.6" spans="1:3">
-      <c r="A109" s="6" t="s">
+    <row r="109" s="7" customFormat="1" ht="165" spans="1:3">
+      <c r="A109" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="B109" s="6"/>
+      <c r="B109" s="8"/>
       <c r="C109" s="12" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="110" s="5" customFormat="1" spans="1:3">
-      <c r="A110" s="6" t="s">
+    <row r="110" s="7" customFormat="1" spans="1:3">
+      <c r="A110" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="B110" s="6"/>
+      <c r="B110" s="8"/>
       <c r="C110" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="111" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A111" s="6" t="s">
+    <row r="111" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A111" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="B111" s="6"/>
-      <c r="C111" s="9" t="s">
+      <c r="B111" s="8"/>
+      <c r="C111" s="10" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="112" s="5" customFormat="1" ht="140.4" spans="1:3">
-      <c r="A112" s="24" t="s">
+    <row r="112" s="7" customFormat="1" ht="135" spans="1:3">
+      <c r="A112" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="C112" s="9" t="s">
+      <c r="C112" s="10" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="113" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A113" s="24"/>
-      <c r="B113" s="6" t="s">
+    <row r="113" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A113" s="8"/>
+      <c r="B113" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" s="10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="114" s="5" customFormat="1" spans="1:3">
-      <c r="A114" s="24"/>
-      <c r="B114" s="6" t="s">
+    <row r="114" s="7" customFormat="1" spans="1:3">
+      <c r="A114" s="8"/>
+      <c r="B114" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="10" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="115" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A115" s="6" t="s">
+    <row r="115" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A115" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="C115" s="11" t="s">
+      <c r="C115" s="10" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="116" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A116" s="6"/>
-      <c r="B116" s="6" t="s">
+    <row r="116" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A116" s="8"/>
+      <c r="B116" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="C116" s="11" t="s">
+      <c r="C116" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="117" s="5" customFormat="1" spans="1:3">
-      <c r="A117" s="6"/>
-      <c r="B117" s="6" t="s">
+    <row r="117" s="7" customFormat="1" spans="1:3">
+      <c r="A117" s="8"/>
+      <c r="B117" s="8" t="s">
         <v>193</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="7" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="118" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A118" s="6" t="s">
+    <row r="118" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A118" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="C118" s="11" t="s">
+      <c r="C118" s="10" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="119" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A119" s="6"/>
-      <c r="B119" s="6"/>
-      <c r="C119" s="11" t="s">
+    <row r="119" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A119" s="8"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="10" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="120" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A120" s="6"/>
-      <c r="B120" s="10" t="s">
+    <row r="120" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A120" s="8"/>
+      <c r="B120" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="C120" s="10" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="121" s="5" customFormat="1" ht="78" spans="1:3">
-      <c r="A121" s="6"/>
-      <c r="B121" s="10" t="s">
+    <row r="121" s="7" customFormat="1" ht="75" spans="1:3">
+      <c r="A121" s="8"/>
+      <c r="B121" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="C121" s="9" t="s">
+      <c r="C121" s="10" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="122" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A122" s="6" t="s">
+    <row r="122" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A122" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="11" t="s">
+      <c r="B122" s="11"/>
+      <c r="C122" s="10" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="123" s="5" customFormat="1" ht="31.2" spans="1:5">
-      <c r="A123" s="6" t="s">
+    <row r="123" s="7" customFormat="1" ht="30" spans="1:5">
+      <c r="A123" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B123" s="10"/>
+      <c r="B123" s="11"/>
       <c r="C123" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="D123" s="27"/>
-      <c r="E123" s="27"/>
-    </row>
-    <row r="124" s="5" customFormat="1" ht="19.2" spans="1:5">
-      <c r="A124" s="6"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="11" t="s">
+      <c r="D123" s="25"/>
+      <c r="E123" s="25"/>
+    </row>
+    <row r="124" s="7" customFormat="1" ht="17.5" spans="1:5">
+      <c r="A124" s="8"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D124" s="27"/>
-      <c r="E124" s="27"/>
-    </row>
-    <row r="125" s="5" customFormat="1" ht="31.2" spans="1:5">
-      <c r="A125" s="6"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="11" t="s">
+      <c r="D124" s="25"/>
+      <c r="E124" s="25"/>
+    </row>
+    <row r="125" s="7" customFormat="1" ht="30" spans="1:5">
+      <c r="A125" s="8"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="D125" s="27"/>
-      <c r="E125" s="27"/>
-    </row>
-    <row r="126" s="5" customFormat="1" ht="62.4" spans="1:5">
-      <c r="A126" s="6"/>
-      <c r="B126" s="10" t="s">
+      <c r="D125" s="25"/>
+      <c r="E125" s="25"/>
+    </row>
+    <row r="126" s="7" customFormat="1" ht="60" spans="1:5">
+      <c r="A126" s="8"/>
+      <c r="B126" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C126" s="9" t="s">
+      <c r="C126" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="D126" s="27"/>
-      <c r="E126" s="27"/>
-    </row>
-    <row r="127" s="5" customFormat="1" ht="31.2" spans="1:5">
-      <c r="A127" s="6"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="9" t="s">
+      <c r="D126" s="25"/>
+      <c r="E126" s="25"/>
+    </row>
+    <row r="127" s="7" customFormat="1" ht="30" spans="1:5">
+      <c r="A127" s="8"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="D127" s="27"/>
-      <c r="E127" s="27"/>
-    </row>
-    <row r="128" s="5" customFormat="1" ht="31.2" spans="1:5">
-      <c r="A128" s="6" t="s">
+      <c r="D127" s="25"/>
+      <c r="E127" s="25"/>
+    </row>
+    <row r="128" s="7" customFormat="1" ht="30" spans="1:5">
+      <c r="A128" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="B128" s="6"/>
-      <c r="C128" s="11" t="s">
+      <c r="B128" s="8"/>
+      <c r="C128" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="D128" s="27"/>
-      <c r="E128" s="27"/>
-    </row>
-    <row r="129" s="5" customFormat="1" ht="19.2" spans="1:5">
-      <c r="A129" s="6"/>
-      <c r="B129" s="6"/>
-      <c r="C129" s="8" t="s">
+      <c r="D128" s="25"/>
+      <c r="E128" s="25"/>
+    </row>
+    <row r="129" s="7" customFormat="1" ht="17.5" spans="1:5">
+      <c r="A129" s="8"/>
+      <c r="B129" s="8"/>
+      <c r="C129" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="D129" s="27"/>
-      <c r="E129" s="27"/>
-    </row>
-    <row r="130" s="5" customFormat="1" ht="46.8" spans="1:5">
-      <c r="A130" s="6"/>
-      <c r="B130" s="6" t="s">
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
+    </row>
+    <row r="130" s="7" customFormat="1" ht="45" spans="1:5">
+      <c r="A130" s="8"/>
+      <c r="B130" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C130" s="11" t="s">
+      <c r="C130" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="D130" s="27"/>
-      <c r="E130" s="27"/>
-    </row>
-    <row r="131" s="5" customFormat="1" ht="46.8" spans="1:5">
-      <c r="A131" s="6"/>
-      <c r="B131" s="6"/>
-      <c r="C131" s="9" t="s">
+      <c r="D130" s="25"/>
+      <c r="E130" s="25"/>
+    </row>
+    <row r="131" s="7" customFormat="1" ht="45" spans="1:5">
+      <c r="A131" s="8"/>
+      <c r="B131" s="8"/>
+      <c r="C131" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="D131" s="27"/>
-      <c r="E131" s="27"/>
-    </row>
-    <row r="132" s="5" customFormat="1" ht="46.8" spans="1:5">
-      <c r="A132" s="6"/>
-      <c r="B132" s="6" t="s">
+      <c r="D131" s="25"/>
+      <c r="E131" s="25"/>
+    </row>
+    <row r="132" s="7" customFormat="1" ht="45" spans="1:5">
+      <c r="A132" s="8"/>
+      <c r="B132" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="C132" s="9" t="s">
+      <c r="C132" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="D132" s="27"/>
-      <c r="E132" s="27"/>
-    </row>
-    <row r="133" s="5" customFormat="1" ht="46.8" spans="1:5">
-      <c r="A133" s="6"/>
-      <c r="B133" s="6"/>
-      <c r="C133" s="9" t="s">
+      <c r="D132" s="25"/>
+      <c r="E132" s="25"/>
+    </row>
+    <row r="133" s="7" customFormat="1" ht="45" spans="1:5">
+      <c r="A133" s="8"/>
+      <c r="B133" s="8"/>
+      <c r="C133" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="D133" s="27"/>
-      <c r="E133" s="27"/>
-    </row>
-    <row r="134" s="5" customFormat="1" ht="31.2" spans="1:5">
-      <c r="A134" s="6"/>
-      <c r="B134" s="6" t="s">
+      <c r="D133" s="25"/>
+      <c r="E133" s="25"/>
+    </row>
+    <row r="134" s="7" customFormat="1" ht="30" spans="1:5">
+      <c r="A134" s="8"/>
+      <c r="B134" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C134" s="11" t="s">
+      <c r="C134" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="D134" s="27"/>
-      <c r="E134" s="27"/>
-    </row>
-    <row r="135" s="5" customFormat="1" ht="46.8" spans="1:5">
-      <c r="A135" s="6"/>
-      <c r="B135" s="6"/>
-      <c r="C135" s="11" t="s">
+      <c r="D134" s="25"/>
+      <c r="E134" s="25"/>
+    </row>
+    <row r="135" s="7" customFormat="1" ht="45" spans="1:5">
+      <c r="A135" s="8"/>
+      <c r="B135" s="8"/>
+      <c r="C135" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="D135" s="27"/>
-      <c r="E135" s="27"/>
-    </row>
-    <row r="136" s="5" customFormat="1" ht="62.4" spans="1:5">
-      <c r="A136" s="6"/>
-      <c r="B136" s="10" t="s">
+      <c r="D135" s="25"/>
+      <c r="E135" s="25"/>
+    </row>
+    <row r="136" s="7" customFormat="1" ht="60" spans="1:5">
+      <c r="A136" s="8"/>
+      <c r="B136" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C136" s="9" t="s">
+      <c r="C136" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="D136" s="27"/>
-      <c r="E136" s="27"/>
-    </row>
-    <row r="137" s="5" customFormat="1" ht="109.2" spans="1:5">
-      <c r="A137" s="6"/>
-      <c r="B137" s="10"/>
-      <c r="C137" s="9" t="s">
+      <c r="D136" s="25"/>
+      <c r="E136" s="25"/>
+    </row>
+    <row r="137" s="7" customFormat="1" ht="105" spans="1:5">
+      <c r="A137" s="8"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="D137" s="27"/>
-      <c r="E137" s="27"/>
-    </row>
-    <row r="138" s="5" customFormat="1" ht="19.2" spans="1:5">
-      <c r="A138" s="24" t="s">
+      <c r="D137" s="25"/>
+      <c r="E137" s="25"/>
+    </row>
+    <row r="138" s="7" customFormat="1" ht="17.5" spans="1:5">
+      <c r="A138" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="B138" s="15" t="s">
+      <c r="B138" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C138" s="9" t="s">
+      <c r="C138" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="D138" s="27"/>
-      <c r="E138" s="27"/>
-    </row>
-    <row r="139" s="5" customFormat="1" ht="140.4" spans="1:5">
-      <c r="A139" s="24"/>
-      <c r="B139" s="15"/>
-      <c r="C139" s="34" t="s">
+      <c r="D138" s="25"/>
+      <c r="E138" s="25"/>
+    </row>
+    <row r="139" s="7" customFormat="1" ht="135" spans="1:5">
+      <c r="A139" s="8"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="D139" s="27"/>
-      <c r="E139" s="27"/>
-    </row>
-    <row r="140" s="5" customFormat="1" ht="31.2" spans="1:5">
-      <c r="A140" s="6" t="s">
+      <c r="D139" s="25"/>
+      <c r="E139" s="25"/>
+    </row>
+    <row r="140" s="7" customFormat="1" ht="30" spans="1:5">
+      <c r="A140" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B140" s="10" t="s">
+      <c r="B140" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="9" t="s">
+      <c r="C140" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="D140" s="27"/>
-      <c r="E140" s="27"/>
-    </row>
-    <row r="141" s="5" customFormat="1" ht="93.6" spans="1:5">
-      <c r="A141" s="6" t="s">
+      <c r="D140" s="25"/>
+      <c r="E140" s="25"/>
+    </row>
+    <row r="141" s="7" customFormat="1" ht="90" spans="1:5">
+      <c r="A141" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="B141" s="10"/>
-      <c r="C141" s="9" t="s">
+      <c r="B141" s="11"/>
+      <c r="C141" s="10" t="s">
         <v>234</v>
       </c>
-      <c r="D141" s="27"/>
-      <c r="E141" s="27"/>
-    </row>
-    <row r="142" s="5" customFormat="1" ht="109.2" spans="1:5">
-      <c r="A142" s="6"/>
-      <c r="B142" s="10"/>
-      <c r="C142" s="9" t="s">
+      <c r="D141" s="25"/>
+      <c r="E141" s="25"/>
+    </row>
+    <row r="142" s="7" customFormat="1" ht="105" spans="1:5">
+      <c r="A142" s="8"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="D142" s="27"/>
-      <c r="E142" s="27"/>
-    </row>
-    <row r="143" s="5" customFormat="1" ht="93.6" spans="1:5">
-      <c r="A143" s="6"/>
-      <c r="B143" s="10"/>
-      <c r="C143" s="9" t="s">
+      <c r="D142" s="25"/>
+      <c r="E142" s="25"/>
+    </row>
+    <row r="143" s="7" customFormat="1" ht="90" spans="1:5">
+      <c r="A143" s="8"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="D143" s="27"/>
-      <c r="E143" s="27"/>
-    </row>
-    <row r="144" s="5" customFormat="1" ht="19.2" spans="1:5">
-      <c r="A144" s="6"/>
-      <c r="B144" s="10" t="s">
+      <c r="D143" s="25"/>
+      <c r="E143" s="25"/>
+    </row>
+    <row r="144" s="7" customFormat="1" ht="17.5" spans="1:5">
+      <c r="A144" s="8"/>
+      <c r="B144" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C144" s="9" t="s">
+      <c r="C144" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="D144" s="27"/>
-      <c r="E144" s="27"/>
-    </row>
-    <row r="145" s="5" customFormat="1" ht="62.4" spans="1:5">
-      <c r="A145" s="6"/>
-      <c r="B145" s="10"/>
-      <c r="C145" s="9" t="s">
+      <c r="D144" s="25"/>
+      <c r="E144" s="25"/>
+    </row>
+    <row r="145" s="7" customFormat="1" ht="60" spans="1:5">
+      <c r="A145" s="8"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="D145" s="27"/>
-      <c r="E145" s="27"/>
-    </row>
-    <row r="146" s="5" customFormat="1" ht="62.4" spans="1:5">
-      <c r="A146" s="6" t="s">
+      <c r="D145" s="25"/>
+      <c r="E145" s="25"/>
+    </row>
+    <row r="146" s="7" customFormat="1" ht="60" spans="1:5">
+      <c r="A146" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B146" s="6"/>
-      <c r="C146" s="9" t="s">
+      <c r="B146" s="8"/>
+      <c r="C146" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="D146" s="27"/>
-      <c r="E146" s="27"/>
-    </row>
-    <row r="147" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A147" s="6"/>
-      <c r="B147" s="6"/>
-      <c r="C147" s="11" t="s">
+      <c r="D146" s="25"/>
+      <c r="E146" s="25"/>
+    </row>
+    <row r="147" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A147" s="8"/>
+      <c r="B147" s="8"/>
+      <c r="C147" s="10" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="148" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A148" s="6"/>
-      <c r="B148" s="6"/>
-      <c r="C148" s="9" t="s">
+    <row r="148" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A148" s="8"/>
+      <c r="B148" s="8"/>
+      <c r="C148" s="10" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="149" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A149" s="6" t="s">
+    <row r="149" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A149" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="B149" s="6"/>
-      <c r="C149" s="9" t="s">
+      <c r="B149" s="8"/>
+      <c r="C149" s="10" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="150" s="5" customFormat="1" spans="1:3">
-      <c r="A150" s="6"/>
-      <c r="B150" s="6"/>
-      <c r="C150" s="9" t="s">
+    <row r="150" s="7" customFormat="1" spans="1:3">
+      <c r="A150" s="8"/>
+      <c r="B150" s="8"/>
+      <c r="C150" s="10" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="151" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="11" t="s">
+    <row r="151" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A151" s="8"/>
+      <c r="B151" s="8"/>
+      <c r="C151" s="10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="152" s="5" customFormat="1" ht="78" spans="1:3">
-      <c r="A152" s="6"/>
-      <c r="B152" s="6"/>
-      <c r="C152" s="9" t="s">
+    <row r="152" s="7" customFormat="1" ht="75" spans="1:3">
+      <c r="A152" s="8"/>
+      <c r="B152" s="8"/>
+      <c r="C152" s="10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="153" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A153" s="6" t="s">
+    <row r="153" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A153" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B153" s="6"/>
-      <c r="C153" s="9" t="s">
+      <c r="B153" s="8"/>
+      <c r="C153" s="10" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="154" s="5" customFormat="1" ht="78" spans="1:3">
-      <c r="A154" s="6"/>
-      <c r="B154" s="6" t="s">
+    <row r="154" s="7" customFormat="1" ht="75" spans="1:3">
+      <c r="A154" s="8"/>
+      <c r="B154" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="C154" s="9" t="s">
+      <c r="C154" s="10" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="155" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A155" s="6" t="s">
+    <row r="155" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A155" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="B155" s="24" t="s">
+      <c r="B155" s="8" t="s">
         <v>254</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="10" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="156" s="5" customFormat="1" ht="171.6" spans="1:3">
-      <c r="A156" s="6"/>
-      <c r="B156" s="24"/>
-      <c r="C156" s="9" t="s">
+    <row r="156" s="7" customFormat="1" ht="165" spans="1:3">
+      <c r="A156" s="8"/>
+      <c r="B156" s="8"/>
+      <c r="C156" s="10" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="157" s="5" customFormat="1" ht="78" spans="1:3">
-      <c r="A157" s="6"/>
-      <c r="B157" s="24" t="s">
+    <row r="157" s="7" customFormat="1" ht="75" spans="1:3">
+      <c r="A157" s="8"/>
+      <c r="B157" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="C157" s="9" t="s">
+      <c r="C157" s="10" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="158" s="5" customFormat="1" ht="78" spans="1:3">
-      <c r="A158" s="6"/>
-      <c r="B158" s="24" t="s">
+    <row r="158" s="7" customFormat="1" ht="75" spans="1:3">
+      <c r="A158" s="8"/>
+      <c r="B158" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C158" s="9" t="s">
+      <c r="C158" s="10" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="159" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A159" s="6" t="s">
+    <row r="159" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A159" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="B159" s="6"/>
-      <c r="C159" s="9" t="s">
+      <c r="B159" s="8"/>
+      <c r="C159" s="10" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="160" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A160" s="6"/>
-      <c r="B160" s="6"/>
-      <c r="C160" s="11" t="s">
+    <row r="160" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A160" s="8"/>
+      <c r="B160" s="8"/>
+      <c r="C160" s="10" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="161" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A161" s="6"/>
-      <c r="B161" s="6" t="s">
+    <row r="161" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A161" s="8"/>
+      <c r="B161" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="C161" s="9" t="s">
+      <c r="C161" s="10" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="162" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A162" s="6"/>
-      <c r="B162" s="6"/>
-      <c r="C162" s="9" t="s">
+    <row r="162" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A162" s="8"/>
+      <c r="B162" s="8"/>
+      <c r="C162" s="10" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="163" s="5" customFormat="1" spans="1:3">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6" t="s">
+    <row r="163" s="7" customFormat="1" spans="1:3">
+      <c r="A163" s="8"/>
+      <c r="B163" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C163" s="5" t="s">
+      <c r="C163" s="7" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="164" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A164" s="6"/>
-      <c r="B164" s="6"/>
-      <c r="C164" s="9" t="s">
+    <row r="164" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A164" s="8"/>
+      <c r="B164" s="8"/>
+      <c r="C164" s="10" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="165" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A165" s="6"/>
-      <c r="B165" s="6" t="s">
+    <row r="165" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A165" s="8"/>
+      <c r="B165" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="C165" s="9" t="s">
+      <c r="C165" s="10" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="166" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A166" s="6"/>
-      <c r="B166" s="6"/>
-      <c r="C166" s="11" t="s">
+    <row r="166" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A166" s="8"/>
+      <c r="B166" s="8"/>
+      <c r="C166" s="10" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="167" s="5" customFormat="1" spans="1:3">
-      <c r="A167" s="6"/>
-      <c r="B167" s="6" t="s">
+    <row r="167" s="7" customFormat="1" spans="1:3">
+      <c r="A167" s="8"/>
+      <c r="B167" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C167" s="5" t="s">
+      <c r="C167" s="7" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="168" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A168" s="6"/>
-      <c r="B168" s="6"/>
-      <c r="C168" s="9" t="s">
+    <row r="168" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A168" s="8"/>
+      <c r="B168" s="8"/>
+      <c r="C168" s="10" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="169" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A169" s="6"/>
-      <c r="B169" s="10" t="s">
+    <row r="169" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A169" s="8"/>
+      <c r="B169" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="C169" s="9" t="s">
+      <c r="C169" s="10" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="170" s="5" customFormat="1" spans="1:3">
-      <c r="A170" s="6" t="s">
+    <row r="170" s="7" customFormat="1" spans="1:3">
+      <c r="A170" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B170" s="10" t="s">
+      <c r="B170" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C170" s="9" t="s">
+      <c r="C170" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="171" s="5" customFormat="1" spans="1:3">
-      <c r="A171" s="6"/>
-      <c r="B171" s="10" t="s">
+    <row r="171" s="7" customFormat="1" spans="1:3">
+      <c r="A171" s="8"/>
+      <c r="B171" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C171" s="9" t="s">
+      <c r="C171" s="10" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="172" s="5" customFormat="1" spans="1:3">
-      <c r="A172" s="6"/>
-      <c r="B172" s="10" t="s">
+    <row r="172" s="7" customFormat="1" spans="1:3">
+      <c r="A172" s="8"/>
+      <c r="B172" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C172" s="9" t="s">
+      <c r="C172" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="173" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A173" s="6" t="s">
+    <row r="173" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A173" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="B173" s="10" t="s">
+      <c r="B173" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="C173" s="9" t="s">
+      <c r="C173" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="174" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A174" s="6"/>
-      <c r="B174" s="10" t="s">
+    <row r="174" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A174" s="8"/>
+      <c r="B174" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C174" s="9" t="s">
+      <c r="C174" s="10" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="175" s="5" customFormat="1" spans="1:3">
-      <c r="A175" s="6"/>
-      <c r="B175" s="10" t="s">
+    <row r="175" s="7" customFormat="1" spans="1:3">
+      <c r="A175" s="8"/>
+      <c r="B175" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="C175" s="9" t="s">
+      <c r="C175" s="10" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="176" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A176" s="6" t="s">
+    <row r="176" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A176" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="7" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="177" s="5" customFormat="1" spans="1:3">
-      <c r="A177" s="6"/>
-      <c r="B177" s="6" t="s">
+    <row r="177" s="7" customFormat="1" spans="1:3">
+      <c r="A177" s="8"/>
+      <c r="B177" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="C177" s="5" t="s">
+      <c r="C177" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="178" s="5" customFormat="1" spans="1:3">
-      <c r="A178" s="6"/>
-      <c r="B178" s="6" t="s">
+    <row r="178" s="7" customFormat="1" spans="1:3">
+      <c r="A178" s="8"/>
+      <c r="B178" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="C178" s="5" t="s">
+      <c r="C178" s="7" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="179" s="5" customFormat="1" spans="2:2">
-      <c r="B179" s="6"/>
-    </row>
-    <row r="180" s="5" customFormat="1" spans="2:2">
-      <c r="B180" s="6"/>
-    </row>
-    <row r="181" s="5" customFormat="1" spans="2:2">
-      <c r="B181" s="6"/>
-    </row>
-    <row r="182" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A182" s="11" t="s">
+    <row r="179" s="7" customFormat="1" spans="2:2">
+      <c r="B179" s="8"/>
+    </row>
+    <row r="180" s="7" customFormat="1" spans="2:2">
+      <c r="B180" s="8"/>
+    </row>
+    <row r="181" s="7" customFormat="1" spans="2:2">
+      <c r="B181" s="8"/>
+    </row>
+    <row r="182" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A182" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B182" s="6"/>
-      <c r="C182" s="9" t="s">
+      <c r="B182" s="8"/>
+      <c r="C182" s="10" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="183" s="5" customFormat="1" spans="1:3">
-      <c r="A183" s="5" t="s">
+    <row r="183" s="7" customFormat="1" spans="1:3">
+      <c r="A183" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="B183" s="6"/>
-      <c r="C183" s="8" t="s">
+      <c r="B183" s="8"/>
+      <c r="C183" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="184" s="5" customFormat="1" spans="1:3">
-      <c r="A184" s="5" t="s">
+    <row r="184" s="7" customFormat="1" spans="1:3">
+      <c r="A184" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="B184" s="6"/>
-      <c r="C184" s="8" t="s">
+      <c r="B184" s="8"/>
+      <c r="C184" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="185" s="5" customFormat="1" ht="78" spans="1:3">
-      <c r="A185" s="11" t="s">
+    <row r="185" s="7" customFormat="1" ht="75" spans="1:3">
+      <c r="A185" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="B185" s="6"/>
-      <c r="C185" s="9" t="s">
+      <c r="B185" s="8"/>
+      <c r="C185" s="10" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="186" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A186" s="5" t="s">
+    <row r="186" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A186" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B186" s="6"/>
-      <c r="C186" s="9" t="s">
+      <c r="B186" s="8"/>
+      <c r="C186" s="10" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="187" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A187" s="5" t="s">
+    <row r="187" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A187" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B187" s="6"/>
-      <c r="C187" s="9" t="s">
+      <c r="B187" s="8"/>
+      <c r="C187" s="10" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="188" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A188" s="8" t="s">
+    <row r="188" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A188" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B188" s="6"/>
-      <c r="C188" s="9" t="s">
+      <c r="B188" s="8"/>
+      <c r="C188" s="10" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="189" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A189" s="5" t="s">
+    <row r="189" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A189" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B189" s="6"/>
-      <c r="C189" s="9" t="s">
+      <c r="B189" s="8"/>
+      <c r="C189" s="10" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="190" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A190" s="5" t="s">
+    <row r="190" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A190" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B190" s="6"/>
-      <c r="C190" s="11" t="s">
+      <c r="B190" s="8"/>
+      <c r="C190" s="10" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="191" s="5" customFormat="1" spans="2:3">
-      <c r="B191" s="6"/>
-      <c r="C191" s="11"/>
-    </row>
-    <row r="192" s="5" customFormat="1" spans="1:3">
-      <c r="A192" s="26" t="s">
+    <row r="191" s="7" customFormat="1" spans="2:3">
+      <c r="B191" s="8"/>
+      <c r="C191" s="10"/>
+    </row>
+    <row r="192" s="7" customFormat="1" spans="1:3">
+      <c r="A192" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="B192" s="26"/>
-      <c r="C192" s="26"/>
-    </row>
-    <row r="193" s="5" customFormat="1" spans="1:3">
-      <c r="A193" s="5" t="s">
+      <c r="B192" s="24"/>
+      <c r="C192" s="24"/>
+    </row>
+    <row r="193" s="7" customFormat="1" spans="1:3">
+      <c r="A193" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="B193" s="6"/>
-      <c r="C193" s="5" t="s">
+      <c r="B193" s="8"/>
+      <c r="C193" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="194" s="5" customFormat="1" spans="1:3">
-      <c r="A194" s="5" t="s">
+    <row r="194" s="7" customFormat="1" spans="1:3">
+      <c r="A194" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="B194" s="6"/>
-      <c r="C194" s="5" t="s">
+      <c r="B194" s="8"/>
+      <c r="C194" s="7" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="195" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A195" s="5" t="s">
+    <row r="195" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A195" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="B195" s="6"/>
-      <c r="C195" s="11" t="s">
+      <c r="B195" s="8"/>
+      <c r="C195" s="10" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="196" s="5" customFormat="1" spans="2:2">
-      <c r="B196" s="6"/>
-    </row>
-    <row r="197" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A197" s="8" t="s">
+    <row r="196" s="7" customFormat="1" spans="2:2">
+      <c r="B196" s="8"/>
+    </row>
+    <row r="197" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A197" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B197" s="24" t="s">
+      <c r="B197" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C197" s="9" t="s">
+      <c r="C197" s="10" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="198" s="5" customFormat="1" spans="2:3">
-      <c r="B198" s="6"/>
-      <c r="C198" s="8"/>
-    </row>
-    <row r="199" s="5" customFormat="1" spans="2:3">
-      <c r="B199" s="6"/>
-      <c r="C199" s="8"/>
-    </row>
-    <row r="200" s="5" customFormat="1" spans="2:3">
-      <c r="B200" s="6"/>
-      <c r="C200" s="8"/>
-    </row>
-    <row r="201" s="5" customFormat="1" ht="20.4" spans="1:3">
-      <c r="A201" s="28" t="s">
+    <row r="198" s="7" customFormat="1" spans="2:2">
+      <c r="B198" s="8"/>
+    </row>
+    <row r="199" s="7" customFormat="1" spans="2:2">
+      <c r="B199" s="8"/>
+    </row>
+    <row r="200" s="7" customFormat="1" spans="2:2">
+      <c r="B200" s="8"/>
+    </row>
+    <row r="201" s="7" customFormat="1" ht="21" spans="1:3">
+      <c r="A201" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="B201" s="29"/>
-      <c r="C201" s="29"/>
-    </row>
-    <row r="202" s="5" customFormat="1" ht="124.8" spans="1:3">
-      <c r="A202" s="30" t="s">
+      <c r="B201" s="26"/>
+      <c r="C201" s="26"/>
+    </row>
+    <row r="202" s="7" customFormat="1" ht="120" spans="1:3">
+      <c r="A202" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="B202" s="6"/>
-      <c r="C202" s="9" t="s">
+      <c r="B202" s="8"/>
+      <c r="C202" s="10" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="203" s="5" customFormat="1" spans="1:3">
-      <c r="A203" s="8" t="s">
+    <row r="203" s="7" customFormat="1" spans="1:3">
+      <c r="A203" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="B203" s="6"/>
-      <c r="C203" s="8" t="s">
+      <c r="B203" s="8"/>
+      <c r="C203" s="7" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="204" s="5" customFormat="1" spans="1:3">
-      <c r="A204" s="8" t="s">
+    <row r="204" s="7" customFormat="1" spans="1:3">
+      <c r="A204" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B204" s="6"/>
-      <c r="C204" s="8" t="s">
+      <c r="B204" s="8"/>
+      <c r="C204" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="205" s="5" customFormat="1" spans="2:2">
-      <c r="B205" s="6"/>
-    </row>
-    <row r="206" s="5" customFormat="1" ht="93.6" spans="1:3">
-      <c r="A206" s="26" t="s">
+    <row r="205" s="7" customFormat="1" spans="2:2">
+      <c r="B205" s="8"/>
+    </row>
+    <row r="206" s="7" customFormat="1" ht="90" spans="1:3">
+      <c r="A206" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="B206" s="24" t="s">
+      <c r="B206" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C206" s="9" t="s">
+      <c r="C206" s="10" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="207" s="5" customFormat="1" spans="1:3">
-      <c r="A207" s="26"/>
-      <c r="B207" s="24" t="s">
+    <row r="207" s="7" customFormat="1" spans="1:3">
+      <c r="A207" s="24"/>
+      <c r="B207" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="C207" s="8" t="s">
+      <c r="C207" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="208" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A208" s="26"/>
-      <c r="B208" s="15" t="s">
+    <row r="208" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A208" s="24"/>
+      <c r="B208" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="C208" s="9" t="s">
+      <c r="C208" s="10" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="209" s="5" customFormat="1" ht="156" spans="1:3">
-      <c r="A209" s="26"/>
-      <c r="B209" s="15"/>
-      <c r="C209" s="9" t="s">
+    <row r="209" s="7" customFormat="1" ht="150" spans="1:3">
+      <c r="A209" s="24"/>
+      <c r="B209" s="11"/>
+      <c r="C209" s="10" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="210" s="5" customFormat="1" spans="1:3">
-      <c r="A210" s="26"/>
-      <c r="B210" s="15"/>
-      <c r="C210" s="9" t="s">
+    <row r="210" s="7" customFormat="1" spans="1:3">
+      <c r="A210" s="24"/>
+      <c r="B210" s="11"/>
+      <c r="C210" s="10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="211" s="5" customFormat="1" ht="156" spans="1:3">
-      <c r="A211" s="26"/>
-      <c r="B211" s="15"/>
-      <c r="C211" s="9" t="s">
+    <row r="211" s="7" customFormat="1" ht="150" spans="1:3">
+      <c r="A211" s="24"/>
+      <c r="B211" s="11"/>
+      <c r="C211" s="10" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="212" s="5" customFormat="1" ht="109.2" spans="1:3">
-      <c r="A212" s="26"/>
-      <c r="B212" s="15"/>
-      <c r="C212" s="9" t="s">
+    <row r="212" s="7" customFormat="1" ht="105" spans="1:3">
+      <c r="A212" s="24"/>
+      <c r="B212" s="11"/>
+      <c r="C212" s="10" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="213" s="5" customFormat="1" ht="93.6" spans="1:3">
-      <c r="A213" s="26"/>
-      <c r="B213" s="15" t="s">
+    <row r="213" s="7" customFormat="1" ht="90" spans="1:3">
+      <c r="A213" s="24"/>
+      <c r="B213" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="C213" s="9" t="s">
+      <c r="C213" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="214" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A214" s="26"/>
-      <c r="B214" s="15" t="s">
+    <row r="214" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A214" s="24"/>
+      <c r="B214" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="C214" s="9" t="s">
+      <c r="C214" s="10" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="215" s="5" customFormat="1" ht="109.2" spans="1:3">
-      <c r="A215" s="26"/>
-      <c r="B215" s="15"/>
-      <c r="C215" s="9" t="s">
+    <row r="215" s="7" customFormat="1" ht="105" spans="1:3">
+      <c r="A215" s="24"/>
+      <c r="B215" s="11"/>
+      <c r="C215" s="10" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="216" s="5" customFormat="1" spans="1:3">
-      <c r="A216" s="26"/>
-      <c r="B216" s="15"/>
-      <c r="C216" s="9"/>
-    </row>
-    <row r="217" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A217" s="24" t="s">
+    <row r="216" s="7" customFormat="1" spans="1:3">
+      <c r="A216" s="24"/>
+      <c r="B216" s="11"/>
+      <c r="C216" s="10"/>
+    </row>
+    <row r="217" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A217" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B217" s="15" t="s">
+      <c r="B217" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="C217" s="9" t="s">
+      <c r="C217" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="218" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A218" s="24"/>
-      <c r="B218" s="15" t="s">
+    <row r="218" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A218" s="8"/>
+      <c r="B218" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="C218" s="9" t="s">
+      <c r="C218" s="10" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="219" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A219" s="24"/>
-      <c r="B219" s="15" t="s">
+    <row r="219" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A219" s="8"/>
+      <c r="B219" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C219" s="9" t="s">
+      <c r="C219" s="10" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="220" s="5" customFormat="1" spans="1:3">
-      <c r="A220" s="24"/>
-      <c r="B220" s="15" t="s">
+    <row r="220" s="7" customFormat="1" spans="1:3">
+      <c r="A220" s="8"/>
+      <c r="B220" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="C220" s="9" t="s">
+      <c r="C220" s="10" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="221" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A221" s="24"/>
-      <c r="B221" s="15" t="s">
+    <row r="221" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A221" s="8"/>
+      <c r="B221" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="C221" s="9" t="s">
+      <c r="C221" s="10" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="222" s="5" customFormat="1" spans="1:3">
-      <c r="A222" s="24"/>
-      <c r="B222" s="15" t="s">
+    <row r="222" s="7" customFormat="1" spans="1:3">
+      <c r="A222" s="8"/>
+      <c r="B222" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="C222" s="9" t="s">
+      <c r="C222" s="10" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="223" s="5" customFormat="1" spans="1:3">
-      <c r="A223" s="24"/>
-      <c r="B223" s="15" t="s">
+    <row r="223" s="7" customFormat="1" spans="1:3">
+      <c r="A223" s="8"/>
+      <c r="B223" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="C223" s="9" t="s">
+      <c r="C223" s="10" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="224" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A224" s="24"/>
-      <c r="B224" s="15" t="s">
+    <row r="224" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A224" s="8"/>
+      <c r="B224" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="C224" s="9" t="s">
+      <c r="C224" s="10" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="225" s="5" customFormat="1" ht="109.2" spans="1:3">
-      <c r="A225" s="8" t="s">
+    <row r="225" s="7" customFormat="1" ht="105" spans="1:3">
+      <c r="A225" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="B225" s="6"/>
-      <c r="C225" s="9" t="s">
+      <c r="B225" s="8"/>
+      <c r="C225" s="10" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="226" s="5" customFormat="1" ht="187.2" spans="1:3">
-      <c r="A226" s="8" t="s">
+    <row r="226" s="7" customFormat="1" ht="180" spans="1:3">
+      <c r="A226" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="B226" s="6"/>
-      <c r="C226" s="9" t="s">
+      <c r="B226" s="8"/>
+      <c r="C226" s="10" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="227" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A227" s="8" t="s">
+    <row r="227" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A227" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="B227" s="6"/>
-      <c r="C227" s="9" t="s">
+      <c r="B227" s="8"/>
+      <c r="C227" s="10" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="228" s="5" customFormat="1" ht="218.4" spans="1:3">
-      <c r="A228" s="8" t="s">
+    <row r="228" s="7" customFormat="1" ht="210" spans="1:3">
+      <c r="A228" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="B228" s="6"/>
-      <c r="C228" s="9" t="s">
+      <c r="B228" s="8"/>
+      <c r="C228" s="10" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="229" s="5" customFormat="1" ht="62.4" spans="1:3">
-      <c r="A229" s="8" t="s">
+    <row r="229" s="7" customFormat="1" ht="60" spans="1:3">
+      <c r="A229" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="B229" s="6"/>
-      <c r="C229" s="9" t="s">
+      <c r="B229" s="8"/>
+      <c r="C229" s="10" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="230" s="5" customFormat="1" spans="2:3">
-      <c r="B230" s="6"/>
-      <c r="C230" s="9"/>
-    </row>
-    <row r="231" s="5" customFormat="1" spans="2:2">
-      <c r="B231" s="6"/>
-    </row>
-    <row r="232" s="5" customFormat="1" spans="2:2">
-      <c r="B232" s="6"/>
-    </row>
-    <row r="233" s="5" customFormat="1" spans="1:3">
-      <c r="A233" s="10" t="s">
+    <row r="230" s="7" customFormat="1" spans="2:3">
+      <c r="B230" s="8"/>
+      <c r="C230" s="10"/>
+    </row>
+    <row r="231" s="7" customFormat="1" spans="2:2">
+      <c r="B231" s="8"/>
+    </row>
+    <row r="232" s="7" customFormat="1" spans="2:2">
+      <c r="B232" s="8"/>
+    </row>
+    <row r="233" s="7" customFormat="1" spans="1:3">
+      <c r="A233" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="B233" s="6"/>
-      <c r="C233" s="5" t="s">
+      <c r="B233" s="8"/>
+      <c r="C233" s="7" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="234" s="5" customFormat="1" ht="31.2" spans="1:3">
-      <c r="A234" s="10"/>
-      <c r="B234" s="6"/>
-      <c r="C234" s="11" t="s">
+    <row r="234" s="7" customFormat="1" ht="30" spans="1:3">
+      <c r="A234" s="11"/>
+      <c r="B234" s="8"/>
+      <c r="C234" s="10" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="235" s="5" customFormat="1" spans="2:2">
-      <c r="B235" s="6"/>
-    </row>
-    <row r="236" s="5" customFormat="1" ht="109.2" spans="1:3">
-      <c r="A236" s="5" t="s">
+    <row r="235" s="7" customFormat="1" spans="2:2">
+      <c r="B235" s="8"/>
+    </row>
+    <row r="236" s="7" customFormat="1" ht="105" spans="1:3">
+      <c r="A236" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="B236" s="6" t="s">
+      <c r="B236" s="8" t="s">
         <v>377</v>
       </c>
       <c r="C236" s="12" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="237" s="5" customFormat="1" spans="2:2">
-      <c r="B237" s="6"/>
-    </row>
-    <row r="238" s="5" customFormat="1" ht="46.8" spans="1:3">
-      <c r="A238" s="5" t="s">
+    <row r="237" s="7" customFormat="1" spans="2:2">
+      <c r="B237" s="8"/>
+    </row>
+    <row r="238" s="7" customFormat="1" ht="45" spans="1:3">
+      <c r="A238" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="B238" s="6"/>
-      <c r="C238" s="11" t="s">
+      <c r="B238" s="8"/>
+      <c r="C238" s="10" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="240" ht="31.2" spans="1:3">
-      <c r="A240" s="5" t="s">
+    <row r="240" ht="30" spans="1:3">
+      <c r="A240" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="C240" s="9" t="s">
+      <c r="C240" s="10" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="241" ht="46.8" spans="1:3">
+    <row r="241" ht="45" spans="1:3">
       <c r="A241" s="13" t="s">
         <v>383</v>
       </c>
-      <c r="B241" s="31" t="s">
+      <c r="B241" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="C241" s="32" t="s">
+      <c r="C241" s="29" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="242" ht="93.6" spans="1:3">
+    <row r="242" ht="165" spans="1:3">
       <c r="A242" s="13"/>
-      <c r="B242" s="31"/>
-      <c r="C242" s="32" t="s">
+      <c r="B242" s="28"/>
+      <c r="C242" s="29" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" s="13"/>
-      <c r="C243" s="5" t="s">
+      <c r="C243" s="7" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="244" ht="31.2" spans="1:3">
+    <row r="244" ht="30" spans="1:3">
       <c r="A244" s="13"/>
-      <c r="B244" s="31" t="s">
+      <c r="B244" s="28" t="s">
         <v>387</v>
       </c>
       <c r="C244" s="12" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="245" ht="31.2" spans="1:3">
+    <row r="245" ht="30" spans="1:3">
       <c r="A245" s="13"/>
-      <c r="B245" s="33"/>
+      <c r="B245" s="28"/>
       <c r="C245" s="12" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="246" ht="31.2" spans="1:3">
+    <row r="246" ht="30" spans="1:3">
       <c r="A246" s="13"/>
-      <c r="B246" s="31" t="s">
+      <c r="B246" s="28" t="s">
         <v>390</v>
       </c>
       <c r="C246" s="12" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="247" ht="31.2" spans="1:3">
+    <row r="247" ht="30" spans="1:3">
       <c r="A247" s="13"/>
-      <c r="B247" s="33"/>
+      <c r="B247" s="28"/>
       <c r="C247" s="12" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="248" ht="156" spans="1:3">
+    <row r="248" ht="150" spans="1:3">
       <c r="A248" s="13"/>
-      <c r="B248" s="15" t="s">
+      <c r="B248" s="11" t="s">
         <v>393</v>
       </c>
       <c r="C248" s="12" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="249" ht="62.4" spans="1:3">
+    <row r="249" ht="60" spans="1:3">
       <c r="A249" s="13"/>
-      <c r="B249" s="15" t="s">
+      <c r="B249" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="C249" s="9" t="s">
+      <c r="C249" s="10" t="s">
         <v>396</v>
       </c>
     </row>
@@ -12596,29 +13400,29 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="13.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="120.222222222222" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.3363636363636" customWidth="1"/>
+    <col min="2" max="2" width="13.7818181818182" customWidth="1"/>
+    <col min="3" max="3" width="120.218181818182" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="43.2" spans="1:3">
+    <row r="1" ht="42" spans="1:3">
       <c r="A1" t="s">
         <v>397</v>
       </c>
       <c r="B1" t="s">
         <v>398</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="2" ht="28.8" spans="2:3">
+    <row r="2" ht="28" spans="2:3">
       <c r="B2" t="s">
         <v>400</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>401</v>
       </c>
     </row>
@@ -12626,34 +13430,34 @@
       <c r="C5"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="24" ht="28.8" spans="1:3">
-      <c r="A24" s="1"/>
-      <c r="C24" s="3" t="s">
+    <row r="24" ht="28" spans="1:3">
+      <c r="A24" s="2"/>
+      <c r="C24" s="4" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="25" ht="43.2" spans="1:3">
-      <c r="A25" s="1"/>
+    <row r="25" ht="42" spans="1:3">
+      <c r="A25" s="2"/>
       <c r="B25" t="s">
         <v>405</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2"/>
       <c r="B26" t="s">
         <v>407</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>408</v>
       </c>
     </row>
@@ -12674,153 +13478,190 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A4:C36"/>
+  <dimension ref="A2:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="13.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="16.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="129.888888888889" customWidth="1"/>
+    <col min="1" max="1" width="13.2181818181818" customWidth="1"/>
+    <col min="2" max="2" width="16.1090909090909" customWidth="1"/>
+    <col min="3" max="3" width="129.890909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" ht="43.2" spans="1:3">
-      <c r="A4" s="1" t="s">
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
         <v>409</v>
       </c>
+      <c r="B2" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1"/>
+      <c r="B3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>410</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="5" ht="43.2" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" t="s">
-        <v>412</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="6" ht="43.2" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" t="s">
         <v>414</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C4" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="7" ht="43.2" spans="1:3">
-      <c r="A7" s="1"/>
-      <c r="B7" t="s">
+    <row r="8" ht="42" spans="1:3">
+      <c r="A8" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="B8" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="8" ht="28.8" spans="1:3">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
+      <c r="C8" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="9" ht="42" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="9" ht="43.2" spans="1:3">
-      <c r="A9" s="1"/>
-      <c r="B9" t="s">
+      <c r="C9" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" ht="42" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="11" ht="72" spans="1:3">
-      <c r="A11" t="s">
+      <c r="C10" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="C11" s="2" t="s">
+    </row>
+    <row r="11" ht="42" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="12" ht="28.8" spans="2:3">
+      <c r="C11" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="1:3">
+      <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>424</v>
-      </c>
-      <c r="C12" s="2" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="30" ht="43.2" spans="2:3">
-      <c r="B30" t="s">
+      <c r="C12" s="3" t="s">
         <v>426</v>
       </c>
-      <c r="C30" s="3" t="s">
+    </row>
+    <row r="13" ht="42" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" t="s">
+      <c r="C13" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="C31" t="s">
+    </row>
+    <row r="15" ht="70" spans="1:3">
+      <c r="A15" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="32" spans="2:3">
-      <c r="B32" t="s">
+      <c r="C15" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="16" ht="28" spans="2:3">
+      <c r="B16" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="33" spans="2:3">
-      <c r="B33" t="s">
+      <c r="C16" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="C33" t="s">
+    </row>
+    <row r="34" ht="42" spans="2:3">
+      <c r="B34" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="34" ht="202" customHeight="1" spans="2:3">
-      <c r="B34" t="s">
+      <c r="C34" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C34" t="str">
+    </row>
+    <row r="35" spans="2:3">
+      <c r="B35" t="s">
+        <v>435</v>
+      </c>
+      <c r="C35" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
+      <c r="B36" t="s">
+        <v>437</v>
+      </c>
+      <c r="C36" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
+      <c r="B37" t="s">
+        <v>439</v>
+      </c>
+      <c r="C37" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="38" ht="202" customHeight="1" spans="2:3">
+      <c r="B38" t="s">
+        <v>441</v>
+      </c>
+      <c r="C38" t="str">
         <f>_xlfn.DISPIMG("ID_04954288AF654B029A31CD001B4BD410",1)</f>
         <v>=DISPIMG("ID_04954288AF654B029A31CD001B4BD410",1)</v>
       </c>
     </row>
-    <row r="35" ht="285" customHeight="1" spans="2:3">
-      <c r="B35" t="s">
-        <v>435</v>
-      </c>
-      <c r="C35" t="str">
+    <row r="39" ht="285" customHeight="1" spans="2:3">
+      <c r="B39" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C39" t="str">
         <f>_xlfn.DISPIMG("ID_1E81F57FE7BE4C59B2051F5BF3D3A247",1)</f>
         <v>=DISPIMG("ID_1E81F57FE7BE4C59B2051F5BF3D3A247",1)</v>
       </c>
     </row>
-    <row r="36" ht="256" customHeight="1" spans="2:3">
-      <c r="B36" t="s">
-        <v>436</v>
-      </c>
-      <c r="C36" t="str">
+    <row r="40" ht="47" customHeight="1" spans="2:3">
+      <c r="B40" s="1"/>
+      <c r="C40" s="5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="41" ht="256" customHeight="1" spans="2:3">
+      <c r="B41" t="s">
+        <v>444</v>
+      </c>
+      <c r="C41" t="str">
         <f>_xlfn.DISPIMG("ID_FD94D2A12C394C12B64D991B5FB4C3CD",1)</f>
         <v>=DISPIMG("ID_FD94D2A12C394C12B64D991B5FB4C3CD",1)</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A4:A9"/>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B39:B40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/数据库.xlsx
+++ b/数据库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15330" windowHeight="8330" activeTab="2"/>
+    <workbookView windowWidth="15330" windowHeight="8330"/>
   </bookViews>
   <sheets>
     <sheet name="MySQL" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="456">
   <si>
     <t>https://www.nowcoder.com/discuss/637486?type=post&amp;order=time&amp;pos=&amp;page=1&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_post_nctrack</t>
   </si>
@@ -7525,6 +7525,54 @@
     </r>
   </si>
   <si>
+    <t>备份</t>
+  </si>
+  <si>
+    <t>mysqldump</t>
+  </si>
+  <si>
+    <t>Xtrabackup</t>
+  </si>
+  <si>
+    <r>
+      <t>Xtrabackup是由percona开源的免费数据库</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>热备份</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>软件，它能对InnoDB数据库和XtraDB存储引擎的数据库非阻塞地备份（对于MyISAM的备份同样需要加表锁）；mysqldump备份方式是采用的逻辑备份，其最大的缺陷是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>备份和恢复速度较慢</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，如果数据库大于50G，mysqldump备份就不太适合。</t>
+    </r>
+  </si>
+  <si>
     <t>SQL优化</t>
   </si>
   <si>
@@ -8455,6 +8503,27 @@
     </r>
   </si>
   <si>
+    <t>表优化命令</t>
+  </si>
+  <si>
+    <t>OPTIMIZE</t>
+  </si>
+  <si>
+    <t>OPTIMIZE TABLE：清除碎片，回收闲置的数据库空间，只对MyISAM, BDB和InnoDB表起作用</t>
+  </si>
+  <si>
+    <t>reorg</t>
+  </si>
+  <si>
+    <t>通过重构行来消除“碎片”数据并压缩信息，对表进行重组</t>
+  </si>
+  <si>
+    <t xml:space="preserve">runsats/ANALYZE </t>
+  </si>
+  <si>
+    <t>收集表的统计信息,让优化器可以使用最新的统计信息来进行优化，优化的效果更好</t>
+  </si>
+  <si>
     <t>MySQL自动生成时间及更新时间</t>
   </si>
   <si>
@@ -8499,9 +8568,28 @@
     <t>执行sql文件</t>
   </si>
   <si>
-    <t>mysql -u root -p
+    <r>
+      <t xml:space="preserve">mysql -u root -p
 use database_name;
-source xxxx.sql ;</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> xxxx.sql ;</t>
+    </r>
   </si>
   <si>
     <t>主从复制架构</t>
@@ -8617,6 +8705,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">详细见博客： </t>
     </r>
     <r>
@@ -10319,12 +10412,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -10333,9 +10423,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
@@ -11201,2122 +11288,2167 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E249"/>
+  <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="A153" sqref="A153:A154"/>
+    <sheetView tabSelected="1" topLeftCell="C193" workbookViewId="0">
+      <selection activeCell="C201" sqref="C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="15.5545454545455" style="7" customWidth="1"/>
-    <col min="2" max="2" width="10.7818181818182" style="8" customWidth="1"/>
-    <col min="3" max="3" width="140.109090909091" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="10" style="7"/>
+    <col min="1" max="1" width="15.5545454545455" style="5" customWidth="1"/>
+    <col min="2" max="2" width="10.7818181818182" style="6" customWidth="1"/>
+    <col min="3" max="3" width="140.109090909091" style="5" customWidth="1"/>
+    <col min="4" max="16384" width="10" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" spans="2:3">
-      <c r="B1" s="8"/>
-      <c r="C1" s="9" t="s">
+    <row r="1" s="5" customFormat="1" spans="2:3">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="7" customFormat="1" spans="2:3">
-      <c r="B2" s="8"/>
-      <c r="C2" s="9" t="s">
+    <row r="2" s="5" customFormat="1" spans="2:3">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" s="7" customFormat="1" spans="1:3">
-      <c r="A3" s="7" t="s">
+    <row r="3" s="5" customFormat="1" spans="1:3">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" s="7" customFormat="1" spans="1:3">
-      <c r="A4" s="7" t="s">
+    <row r="4" s="5" customFormat="1" spans="1:3">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" s="7" customFormat="1" spans="2:3">
-      <c r="B5" s="8"/>
-      <c r="C5" s="9"/>
-    </row>
-    <row r="6" s="7" customFormat="1" ht="90" spans="1:3">
-      <c r="A6" s="7" t="s">
+    <row r="5" s="5" customFormat="1" spans="2:3">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7"/>
+    </row>
+    <row r="6" s="5" customFormat="1" ht="90" spans="1:3">
+      <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="10" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A7" s="11" t="s">
+    <row r="7" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" ht="75" spans="1:3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="8" t="s">
+    <row r="8" s="5" customFormat="1" ht="75" spans="1:3">
+      <c r="A8" s="9"/>
+      <c r="B8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A9" s="11" t="s">
+    <row r="9" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" ht="90" spans="1:3">
-      <c r="A10" s="11"/>
-      <c r="B10" s="8" t="s">
+    <row r="10" s="5" customFormat="1" ht="90" spans="1:3">
+      <c r="A10" s="9"/>
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A11" s="8" t="s">
+    <row r="11" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8" t="s">
+    <row r="12" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="8" t="s">
+    <row r="13" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="14" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="10" t="s">
+    <row r="14" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="1" spans="1:3">
-      <c r="A15" s="11" t="s">
+    <row r="15" s="5" customFormat="1" spans="1:3">
+      <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11" t="s">
+    <row r="16" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" spans="1:3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11" t="s">
+    <row r="17" s="5" customFormat="1" spans="1:3">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="1" ht="90" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11" t="s">
+    <row r="18" s="5" customFormat="1" ht="90" spans="1:3">
+      <c r="A18" s="9"/>
+      <c r="B18" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A19" s="11" t="s">
+    <row r="19" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="10" t="s">
+      <c r="B19" s="9"/>
+      <c r="C19" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11" t="s">
+    <row r="20" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A20" s="9"/>
+      <c r="B20" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A21" s="11"/>
-      <c r="B21" s="8" t="s">
+    <row r="21" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A21" s="9"/>
+      <c r="B21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11" t="s">
+    <row r="22" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" spans="1:3">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11" t="s">
+    <row r="23" s="5" customFormat="1" spans="1:3">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" ht="105" spans="1:3">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="10" t="s">
+    <row r="24" s="5" customFormat="1" ht="105" spans="1:3">
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11" t="s">
+    <row r="25" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A25" s="9"/>
+      <c r="B25" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C25" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="1:3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="8" t="s">
+    <row r="26" s="5" customFormat="1" spans="1:3">
+      <c r="A26" s="9"/>
+      <c r="B26" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C26" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" ht="120" spans="1:3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11" t="s">
+    <row r="27" s="5" customFormat="1" ht="120" spans="1:3">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A28" s="11"/>
-      <c r="B28" s="8" t="s">
+    <row r="28" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A28" s="9"/>
+      <c r="B28" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11" t="s">
+    <row r="29" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A29" s="9"/>
+      <c r="B29" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" spans="1:3">
-      <c r="A30" s="11"/>
-      <c r="B30" s="8" t="s">
+    <row r="30" s="5" customFormat="1" spans="1:3">
+      <c r="A30" s="9"/>
+      <c r="B30" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="31" s="7" customFormat="1" ht="105" spans="1:3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="8" t="s">
+    <row r="31" s="5" customFormat="1" ht="105" spans="1:3">
+      <c r="A31" s="9"/>
+      <c r="B31" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A32" s="11"/>
-      <c r="B32" s="13" t="s">
+    <row r="32" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A32" s="9"/>
+      <c r="B32" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" spans="1:3">
-      <c r="A33" s="11"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="7" t="s">
+    <row r="33" s="5" customFormat="1" spans="1:3">
+      <c r="A33" s="9"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="34" s="7" customFormat="1" spans="1:3">
-      <c r="A34" s="11"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="14" t="s">
+    <row r="34" s="5" customFormat="1" spans="1:3">
+      <c r="A34" s="9"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="35" s="7" customFormat="1" spans="1:3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="8" t="s">
+    <row r="35" s="5" customFormat="1" spans="1:3">
+      <c r="A35" s="9"/>
+      <c r="B35" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="36" s="7" customFormat="1" spans="1:3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="8" t="s">
+    <row r="36" s="5" customFormat="1" spans="1:3">
+      <c r="A36" s="9"/>
+      <c r="B36" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" s="7" customFormat="1" spans="1:3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="8" t="s">
+    <row r="37" s="5" customFormat="1" spans="1:3">
+      <c r="A37" s="9"/>
+      <c r="B37" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="5" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="38" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11" t="s">
+    <row r="38" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="39" s="7" customFormat="1" spans="1:3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11" t="s">
+    <row r="39" s="5" customFormat="1" spans="1:3">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="5" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="40" s="7" customFormat="1" ht="90" spans="1:3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="10" t="s">
+    <row r="40" s="5" customFormat="1" ht="90" spans="1:3">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="8" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="41" s="7" customFormat="1" ht="75" spans="1:3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11" t="s">
+    <row r="41" s="5" customFormat="1" ht="75" spans="1:3">
+      <c r="A41" s="9"/>
+      <c r="B41" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C41" s="8" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="42" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="10" t="s">
+    <row r="42" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A42" s="9"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="8" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="43" s="7" customFormat="1" ht="105" spans="1:3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="10" t="s">
+    <row r="43" s="5" customFormat="1" ht="105" spans="1:3">
+      <c r="A43" s="9"/>
+      <c r="B43" s="9"/>
+      <c r="C43" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="44" s="7" customFormat="1" spans="1:3">
-      <c r="A44" s="11" t="s">
+    <row r="44" s="5" customFormat="1" spans="1:3">
+      <c r="A44" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="11" t="s">
+      <c r="B44" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C44" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="45" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="10" t="s">
+    <row r="45" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A45" s="9"/>
+      <c r="B45" s="9"/>
+      <c r="C45" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="46" s="7" customFormat="1" spans="1:3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11" t="s">
+    <row r="46" s="5" customFormat="1" spans="1:3">
+      <c r="A46" s="9"/>
+      <c r="B46" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="8" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="47" s="7" customFormat="1" spans="1:3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11" t="s">
+    <row r="47" s="5" customFormat="1" spans="1:3">
+      <c r="A47" s="9"/>
+      <c r="B47" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="48" s="7" customFormat="1" ht="75" spans="1:3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="10" t="s">
+    <row r="48" s="5" customFormat="1" ht="75" spans="1:3">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="8" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="49" s="7" customFormat="1" spans="1:3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11" t="s">
+    <row r="49" s="5" customFormat="1" spans="1:3">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C49" s="8" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="50" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A50" s="7" t="s">
+    <row r="50" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A50" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="10" t="s">
+      <c r="B50" s="6"/>
+      <c r="C50" s="8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="51" s="7" customFormat="1" spans="1:3">
-      <c r="A51" s="11" t="s">
+    <row r="51" s="5" customFormat="1" spans="1:3">
+      <c r="A51" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="52" s="7" customFormat="1" ht="75" spans="1:3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="8" t="s">
+    <row r="52" s="5" customFormat="1" ht="75" spans="1:3">
+      <c r="A52" s="9"/>
+      <c r="B52" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="53" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="8" t="s">
+    <row r="53" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A53" s="9"/>
+      <c r="B53" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="8" t="s">
+    <row r="54" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A54" s="9"/>
+      <c r="B54" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="8" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="55" s="7" customFormat="1" spans="1:3">
-      <c r="A55" s="11" t="s">
+    <row r="55" s="5" customFormat="1" spans="1:3">
+      <c r="A55" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" s="7" customFormat="1" spans="1:3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="8" t="s">
+    <row r="56" s="5" customFormat="1" spans="1:3">
+      <c r="A56" s="9"/>
+      <c r="B56" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="8" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="8" t="s">
+    <row r="57" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A57" s="9"/>
+      <c r="B57" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="58" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A58" s="11"/>
-      <c r="B58" s="8"/>
-      <c r="C58" s="10" t="s">
+    <row r="58" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A58" s="9"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="59" s="7" customFormat="1" ht="84" spans="1:3">
-      <c r="A59" s="11" t="s">
+    <row r="59" s="5" customFormat="1" ht="84" spans="1:3">
+      <c r="A59" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B59" s="8"/>
-      <c r="C59" s="15" t="s">
+      <c r="B59" s="6"/>
+      <c r="C59" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="60" s="7" customFormat="1" ht="28" spans="1:3">
-      <c r="A60" s="11"/>
-      <c r="B60" s="8"/>
-      <c r="C60" s="16" t="s">
+    <row r="60" s="5" customFormat="1" ht="28" spans="1:3">
+      <c r="A60" s="9"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="14" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="61" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A61" s="11"/>
-      <c r="B61" s="11" t="s">
+    <row r="61" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A61" s="9"/>
+      <c r="B61" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="C61" s="16" t="s">
+      <c r="C61" s="14" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="62" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A62" s="11"/>
-      <c r="B62" s="11" t="s">
+    <row r="62" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A62" s="9"/>
+      <c r="B62" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C62" s="14" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="63" s="7" customFormat="1" ht="42" spans="1:3">
-      <c r="A63" s="11"/>
-      <c r="B63" s="11" t="s">
+    <row r="63" s="5" customFormat="1" ht="42" spans="1:3">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C63" s="17" t="s">
+      <c r="C63" s="15" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="64" s="7" customFormat="1" ht="28" spans="1:3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="8" t="s">
+    <row r="64" s="5" customFormat="1" ht="28" spans="1:3">
+      <c r="A64" s="9"/>
+      <c r="B64" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="16" t="s">
+      <c r="C64" s="14" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="65" s="7" customFormat="1" spans="1:4">
-      <c r="A65" s="18" t="s">
+    <row r="65" s="5" customFormat="1" spans="1:4">
+      <c r="A65" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="B65" s="18" t="s">
+      <c r="B65" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C65" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="D65" s="18" t="s">
+      <c r="D65" s="16" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="66" s="7" customFormat="1" ht="27" spans="1:5">
-      <c r="A66" s="19" t="s">
+    <row r="66" s="5" customFormat="1" ht="27" spans="1:5">
+      <c r="A66" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="B66" s="20" t="s">
+      <c r="B66" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="C66" s="20" t="s">
+      <c r="C66" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D66" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="5" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="67" s="7" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A67" s="19" t="s">
+    <row r="67" s="5" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A67" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C67" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D67" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="68" s="7" customFormat="1" ht="40.5" spans="1:4">
-      <c r="A68" s="19" t="s">
+    <row r="68" s="5" customFormat="1" ht="40.5" spans="1:4">
+      <c r="A68" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B68" s="20" t="s">
+      <c r="B68" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C68" s="20" t="s">
+      <c r="C68" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D68" s="18" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="69" s="7" customFormat="1" ht="69" customHeight="1" spans="1:5">
-      <c r="A69" s="19" t="s">
+    <row r="69" s="5" customFormat="1" ht="69" customHeight="1" spans="1:5">
+      <c r="A69" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="B69" s="20" t="s">
+      <c r="B69" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C69" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D69" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="E69" s="7" t="s">
+      <c r="E69" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="70" s="7" customFormat="1" spans="1:4">
-      <c r="A70" s="21"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="21"/>
-    </row>
-    <row r="71" s="7" customFormat="1" ht="66" customHeight="1" spans="1:4">
-      <c r="A71" s="21" t="s">
+    <row r="70" s="5" customFormat="1" spans="1:4">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" s="19"/>
+    </row>
+    <row r="71" s="5" customFormat="1" ht="66" customHeight="1" spans="1:4">
+      <c r="A71" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="C71" s="22"/>
-      <c r="D71" s="21"/>
-    </row>
-    <row r="72" s="7" customFormat="1" spans="1:3">
-      <c r="A72" s="21"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="21" t="s">
+      <c r="C71" s="20"/>
+      <c r="D71" s="19"/>
+    </row>
+    <row r="72" s="5" customFormat="1" spans="1:3">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="73" s="7" customFormat="1" spans="1:3">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-    </row>
-    <row r="74" s="7" customFormat="1" spans="2:2">
-      <c r="B74" s="8"/>
-    </row>
-    <row r="75" s="7" customFormat="1" spans="1:3">
-      <c r="A75" s="8" t="s">
+    <row r="73" s="5" customFormat="1" spans="1:3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+    </row>
+    <row r="74" s="5" customFormat="1" spans="2:2">
+      <c r="B74" s="6"/>
+    </row>
+    <row r="75" s="5" customFormat="1" spans="1:3">
+      <c r="A75" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B75" s="8"/>
-      <c r="C75" s="10" t="s">
+      <c r="B75" s="6"/>
+      <c r="C75" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A76" s="8"/>
-      <c r="B76" s="8"/>
-      <c r="C76" s="10" t="s">
+    <row r="76" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="8" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="77" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A77" s="8"/>
-      <c r="B77" s="8" t="s">
+    <row r="77" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C77" s="8" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="78" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A78" s="8"/>
-      <c r="B78" s="8"/>
-      <c r="C78" s="10" t="s">
+    <row r="78" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="79" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A79" s="8"/>
-      <c r="B79" s="8"/>
-      <c r="C79" s="10" t="s">
+    <row r="79" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="8" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="80" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A80" s="8"/>
-      <c r="B80" s="8" t="s">
+    <row r="80" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C80" s="8" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="81" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A81" s="8"/>
-      <c r="B81" s="8"/>
-      <c r="C81" s="10" t="s">
+    <row r="81" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="8" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="82" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A82" s="8"/>
-      <c r="B82" s="8"/>
-      <c r="C82" s="10" t="s">
+    <row r="82" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="8" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="83" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A83" s="8"/>
-      <c r="B83" s="8"/>
-      <c r="C83" s="10" t="s">
+    <row r="83" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="84" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A84" s="8"/>
-      <c r="B84" s="8"/>
-      <c r="C84" s="10" t="s">
+    <row r="84" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="8" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="85" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A85" s="8"/>
-      <c r="B85" s="8" t="s">
+    <row r="85" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C85" s="10" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="86" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A86" s="8"/>
-      <c r="B86" s="8" t="s">
+    <row r="86" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C86" s="8" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="87" s="7" customFormat="1" spans="1:3">
-      <c r="A87" s="8" t="s">
+    <row r="87" s="5" customFormat="1" spans="1:3">
+      <c r="A87" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-    </row>
-    <row r="88" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A88" s="8" t="s">
+      <c r="B87" s="6"/>
+      <c r="C87" s="6"/>
+    </row>
+    <row r="88" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A88" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="B88" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C88" s="8" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="89" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A89" s="8"/>
-      <c r="B89" s="8" t="s">
+    <row r="89" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A89" s="6"/>
+      <c r="B89" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C89" s="8" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="90" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A90" s="8"/>
-      <c r="B90" s="8" t="s">
+    <row r="90" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A90" s="6"/>
+      <c r="B90" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C90" s="8" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="91" s="7" customFormat="1" ht="75" spans="1:3">
-      <c r="A91" s="8" t="s">
+    <row r="91" s="5" customFormat="1" ht="75" spans="1:3">
+      <c r="A91" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="10" t="s">
+      <c r="B91" s="6"/>
+      <c r="C91" s="8" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="92" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A92" s="8"/>
-      <c r="B92" s="8" t="s">
+    <row r="92" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A92" s="6"/>
+      <c r="B92" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="8" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="93" s="7" customFormat="1" spans="1:3">
-      <c r="A93" s="8"/>
-      <c r="B93" s="8"/>
-      <c r="C93" s="10"/>
-    </row>
-    <row r="94" s="7" customFormat="1" spans="1:3">
-      <c r="A94" s="8"/>
-      <c r="B94" s="8"/>
-      <c r="C94" s="10"/>
-    </row>
-    <row r="95" s="7" customFormat="1" spans="1:3">
-      <c r="A95" s="8"/>
-      <c r="B95" s="8"/>
-      <c r="C95" s="10"/>
+    <row r="93" s="5" customFormat="1" spans="1:3">
+      <c r="A93" s="6"/>
+      <c r="B93" s="6"/>
+      <c r="C93" s="8"/>
+    </row>
+    <row r="94" s="5" customFormat="1" spans="1:3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="8"/>
+    </row>
+    <row r="95" s="5" customFormat="1" spans="1:3">
+      <c r="A95" s="6"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="8"/>
     </row>
     <row r="96" spans="1:1">
-      <c r="A96" s="8"/>
-    </row>
-    <row r="97" s="7" customFormat="1" spans="1:3">
-      <c r="A97" s="8"/>
-      <c r="B97" s="8"/>
-      <c r="C97" s="10"/>
-    </row>
-    <row r="98" s="7" customFormat="1" spans="1:3">
-      <c r="A98" s="8" t="s">
+      <c r="A96" s="6"/>
+    </row>
+    <row r="97" s="5" customFormat="1" spans="1:3">
+      <c r="A97" s="6"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="8"/>
+    </row>
+    <row r="98" s="5" customFormat="1" spans="1:3">
+      <c r="A98" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B98" s="8"/>
-      <c r="C98" s="10" t="s">
+      <c r="B98" s="6"/>
+      <c r="C98" s="8" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="99" s="7" customFormat="1" spans="2:2">
-      <c r="B99" s="8"/>
-    </row>
-    <row r="100" s="7" customFormat="1" spans="1:3">
-      <c r="A100" s="23" t="s">
+    <row r="99" s="5" customFormat="1" spans="2:2">
+      <c r="B99" s="6"/>
+    </row>
+    <row r="100" s="5" customFormat="1" spans="1:3">
+      <c r="A100" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B100" s="24"/>
-      <c r="C100" s="24"/>
-    </row>
-    <row r="101" s="7" customFormat="1" spans="1:2">
-      <c r="A101" s="8" t="s">
+      <c r="B100" s="22"/>
+      <c r="C100" s="22"/>
+    </row>
+    <row r="101" s="5" customFormat="1" spans="1:2">
+      <c r="A101" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B101" s="8"/>
-    </row>
-    <row r="102" s="7" customFormat="1" spans="1:3">
-      <c r="A102" s="7" t="s">
+      <c r="B101" s="6"/>
+    </row>
+    <row r="102" s="5" customFormat="1" spans="1:3">
+      <c r="A102" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B102" s="8"/>
-      <c r="C102" s="7" t="s">
+      <c r="B102" s="6"/>
+      <c r="C102" s="5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="103" s="7" customFormat="1" spans="1:3">
-      <c r="A103" s="7" t="s">
+    <row r="103" s="5" customFormat="1" spans="1:3">
+      <c r="A103" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B103" s="8"/>
-      <c r="C103" s="7" t="s">
+      <c r="B103" s="6"/>
+      <c r="C103" s="5" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="104" s="7" customFormat="1" spans="1:3">
-      <c r="A104" s="7" t="s">
+    <row r="104" s="5" customFormat="1" spans="1:3">
+      <c r="A104" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B104" s="8"/>
-      <c r="C104" s="7" t="s">
+      <c r="B104" s="6"/>
+      <c r="C104" s="5" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="105" s="7" customFormat="1" spans="1:3">
-      <c r="A105" s="7" t="s">
+    <row r="105" s="5" customFormat="1" spans="1:3">
+      <c r="A105" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B105" s="8"/>
-      <c r="C105" s="7" t="s">
+      <c r="B105" s="6"/>
+      <c r="C105" s="5" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="106" s="7" customFormat="1" spans="2:3">
-      <c r="B106" s="8"/>
-      <c r="C106" s="7" t="s">
+    <row r="106" s="5" customFormat="1" spans="2:3">
+      <c r="B106" s="6"/>
+      <c r="C106" s="5" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="107" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A107" s="8" t="s">
+    <row r="107" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A107" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B107" s="8"/>
-      <c r="C107" s="10" t="s">
+      <c r="B107" s="6"/>
+      <c r="C107" s="8" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="108" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A108" s="7" t="s">
+    <row r="108" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A108" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B108" s="8"/>
-      <c r="C108" s="10" t="s">
+      <c r="B108" s="6"/>
+      <c r="C108" s="8" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="109" s="7" customFormat="1" ht="165" spans="1:3">
-      <c r="A109" s="8" t="s">
+    <row r="109" s="5" customFormat="1" ht="165" spans="1:3">
+      <c r="A109" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="12" t="s">
+      <c r="B109" s="6"/>
+      <c r="C109" s="10" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="110" s="7" customFormat="1" spans="1:3">
-      <c r="A110" s="8" t="s">
+    <row r="110" s="5" customFormat="1" spans="1:3">
+      <c r="A110" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B110" s="8"/>
-      <c r="C110" s="12" t="s">
+      <c r="B110" s="6"/>
+      <c r="C110" s="10" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="111" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A111" s="8" t="s">
+    <row r="111" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A111" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B111" s="8"/>
-      <c r="C111" s="10" t="s">
+      <c r="B111" s="6"/>
+      <c r="C111" s="8" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="112" s="7" customFormat="1" ht="135" spans="1:3">
-      <c r="A112" s="8" t="s">
+    <row r="112" s="5" customFormat="1" ht="135" spans="1:3">
+      <c r="A112" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B112" s="8" t="s">
+      <c r="B112" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="8" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="113" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A113" s="8"/>
-      <c r="B113" s="8" t="s">
+    <row r="113" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A113" s="6"/>
+      <c r="B113" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="8" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="114" s="7" customFormat="1" spans="1:3">
-      <c r="A114" s="8"/>
-      <c r="B114" s="8" t="s">
+    <row r="114" s="5" customFormat="1" spans="1:3">
+      <c r="A114" s="6"/>
+      <c r="B114" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="115" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A115" s="8" t="s">
+    <row r="115" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A115" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B115" s="8" t="s">
+      <c r="B115" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="C115" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="116" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A116" s="8"/>
-      <c r="B116" s="8" t="s">
+    <row r="116" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A116" s="6"/>
+      <c r="B116" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="C116" s="8" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="117" s="7" customFormat="1" spans="1:3">
-      <c r="A117" s="8"/>
-      <c r="B117" s="8" t="s">
+    <row r="117" s="5" customFormat="1" spans="1:3">
+      <c r="A117" s="6"/>
+      <c r="B117" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="5" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="118" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A118" s="8" t="s">
+    <row r="118" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A118" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B118" s="8" t="s">
+      <c r="B118" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="C118" s="8" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="119" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A119" s="8"/>
-      <c r="B119" s="8"/>
-      <c r="C119" s="10" t="s">
+    <row r="119" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A119" s="6"/>
+      <c r="B119" s="6"/>
+      <c r="C119" s="8" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="120" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A120" s="8"/>
-      <c r="B120" s="11" t="s">
+    <row r="120" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A120" s="6"/>
+      <c r="B120" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="C120" s="8" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="121" s="7" customFormat="1" ht="75" spans="1:3">
-      <c r="A121" s="8"/>
-      <c r="B121" s="11" t="s">
+    <row r="121" s="5" customFormat="1" ht="75" spans="1:3">
+      <c r="A121" s="6"/>
+      <c r="B121" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="C121" s="8" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="122" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A122" s="8" t="s">
+    <row r="122" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A122" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B122" s="11"/>
-      <c r="C122" s="10" t="s">
+      <c r="B122" s="9"/>
+      <c r="C122" s="8" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="123" s="7" customFormat="1" ht="30" spans="1:5">
-      <c r="A123" s="8" t="s">
+    <row r="123" s="5" customFormat="1" ht="30" spans="1:5">
+      <c r="A123" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B123" s="11"/>
-      <c r="C123" s="12" t="s">
+      <c r="B123" s="9"/>
+      <c r="C123" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="D123" s="25"/>
-      <c r="E123" s="25"/>
-    </row>
-    <row r="124" s="7" customFormat="1" ht="17.5" spans="1:5">
-      <c r="A124" s="8"/>
-      <c r="B124" s="11"/>
-      <c r="C124" s="10" t="s">
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+    </row>
+    <row r="124" s="5" customFormat="1" ht="17.5" spans="1:5">
+      <c r="A124" s="6"/>
+      <c r="B124" s="9"/>
+      <c r="C124" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D124" s="25"/>
-      <c r="E124" s="25"/>
-    </row>
-    <row r="125" s="7" customFormat="1" ht="30" spans="1:5">
-      <c r="A125" s="8"/>
-      <c r="B125" s="11"/>
-      <c r="C125" s="10" t="s">
+      <c r="D124" s="23"/>
+      <c r="E124" s="23"/>
+    </row>
+    <row r="125" s="5" customFormat="1" ht="30" spans="1:5">
+      <c r="A125" s="6"/>
+      <c r="B125" s="9"/>
+      <c r="C125" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="D125" s="25"/>
-      <c r="E125" s="25"/>
-    </row>
-    <row r="126" s="7" customFormat="1" ht="60" spans="1:5">
-      <c r="A126" s="8"/>
-      <c r="B126" s="11" t="s">
+      <c r="D125" s="23"/>
+      <c r="E125" s="23"/>
+    </row>
+    <row r="126" s="5" customFormat="1" ht="60" spans="1:5">
+      <c r="A126" s="6"/>
+      <c r="B126" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="C126" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D126" s="25"/>
-      <c r="E126" s="25"/>
-    </row>
-    <row r="127" s="7" customFormat="1" ht="30" spans="1:5">
-      <c r="A127" s="8"/>
-      <c r="B127" s="11"/>
-      <c r="C127" s="10" t="s">
+      <c r="D126" s="23"/>
+      <c r="E126" s="23"/>
+    </row>
+    <row r="127" s="5" customFormat="1" ht="30" spans="1:5">
+      <c r="A127" s="6"/>
+      <c r="B127" s="9"/>
+      <c r="C127" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D127" s="25"/>
-      <c r="E127" s="25"/>
-    </row>
-    <row r="128" s="7" customFormat="1" ht="30" spans="1:5">
-      <c r="A128" s="8" t="s">
+      <c r="D127" s="23"/>
+      <c r="E127" s="23"/>
+    </row>
+    <row r="128" s="5" customFormat="1" ht="30" spans="1:5">
+      <c r="A128" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B128" s="8"/>
-      <c r="C128" s="10" t="s">
+      <c r="B128" s="6"/>
+      <c r="C128" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="D128" s="25"/>
-      <c r="E128" s="25"/>
-    </row>
-    <row r="129" s="7" customFormat="1" ht="17.5" spans="1:5">
-      <c r="A129" s="8"/>
-      <c r="B129" s="8"/>
-      <c r="C129" s="7" t="s">
+      <c r="D128" s="23"/>
+      <c r="E128" s="23"/>
+    </row>
+    <row r="129" s="5" customFormat="1" ht="17.5" spans="1:5">
+      <c r="A129" s="6"/>
+      <c r="B129" s="6"/>
+      <c r="C129" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="D129" s="25"/>
-      <c r="E129" s="25"/>
-    </row>
-    <row r="130" s="7" customFormat="1" ht="45" spans="1:5">
-      <c r="A130" s="8"/>
-      <c r="B130" s="8" t="s">
+      <c r="D129" s="23"/>
+      <c r="E129" s="23"/>
+    </row>
+    <row r="130" s="5" customFormat="1" ht="45" spans="1:5">
+      <c r="A130" s="6"/>
+      <c r="B130" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="C130" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D130" s="25"/>
-      <c r="E130" s="25"/>
-    </row>
-    <row r="131" s="7" customFormat="1" ht="45" spans="1:5">
-      <c r="A131" s="8"/>
-      <c r="B131" s="8"/>
-      <c r="C131" s="10" t="s">
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+    </row>
+    <row r="131" s="5" customFormat="1" ht="45" spans="1:5">
+      <c r="A131" s="6"/>
+      <c r="B131" s="6"/>
+      <c r="C131" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="D131" s="25"/>
-      <c r="E131" s="25"/>
-    </row>
-    <row r="132" s="7" customFormat="1" ht="45" spans="1:5">
-      <c r="A132" s="8"/>
-      <c r="B132" s="8" t="s">
+      <c r="D131" s="23"/>
+      <c r="E131" s="23"/>
+    </row>
+    <row r="132" s="5" customFormat="1" ht="45" spans="1:5">
+      <c r="A132" s="6"/>
+      <c r="B132" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="C132" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="D132" s="25"/>
-      <c r="E132" s="25"/>
-    </row>
-    <row r="133" s="7" customFormat="1" ht="45" spans="1:5">
-      <c r="A133" s="8"/>
-      <c r="B133" s="8"/>
-      <c r="C133" s="10" t="s">
+      <c r="D132" s="23"/>
+      <c r="E132" s="23"/>
+    </row>
+    <row r="133" s="5" customFormat="1" ht="45" spans="1:5">
+      <c r="A133" s="6"/>
+      <c r="B133" s="6"/>
+      <c r="C133" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D133" s="25"/>
-      <c r="E133" s="25"/>
-    </row>
-    <row r="134" s="7" customFormat="1" ht="30" spans="1:5">
-      <c r="A134" s="8"/>
-      <c r="B134" s="8" t="s">
+      <c r="D133" s="23"/>
+      <c r="E133" s="23"/>
+    </row>
+    <row r="134" s="5" customFormat="1" ht="30" spans="1:5">
+      <c r="A134" s="6"/>
+      <c r="B134" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="C134" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D134" s="25"/>
-      <c r="E134" s="25"/>
-    </row>
-    <row r="135" s="7" customFormat="1" ht="45" spans="1:5">
-      <c r="A135" s="8"/>
-      <c r="B135" s="8"/>
-      <c r="C135" s="10" t="s">
+      <c r="D134" s="23"/>
+      <c r="E134" s="23"/>
+    </row>
+    <row r="135" s="5" customFormat="1" ht="45" spans="1:5">
+      <c r="A135" s="6"/>
+      <c r="B135" s="6"/>
+      <c r="C135" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D135" s="25"/>
-      <c r="E135" s="25"/>
-    </row>
-    <row r="136" s="7" customFormat="1" ht="60" spans="1:5">
-      <c r="A136" s="8"/>
-      <c r="B136" s="11" t="s">
+      <c r="D135" s="23"/>
+      <c r="E135" s="23"/>
+    </row>
+    <row r="136" s="5" customFormat="1" ht="60" spans="1:5">
+      <c r="A136" s="6"/>
+      <c r="B136" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="C136" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D136" s="25"/>
-      <c r="E136" s="25"/>
-    </row>
-    <row r="137" s="7" customFormat="1" ht="105" spans="1:5">
-      <c r="A137" s="8"/>
-      <c r="B137" s="11"/>
-      <c r="C137" s="10" t="s">
+      <c r="D136" s="23"/>
+      <c r="E136" s="23"/>
+    </row>
+    <row r="137" s="5" customFormat="1" ht="105" spans="1:5">
+      <c r="A137" s="6"/>
+      <c r="B137" s="9"/>
+      <c r="C137" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="D137" s="25"/>
-      <c r="E137" s="25"/>
-    </row>
-    <row r="138" s="7" customFormat="1" ht="17.5" spans="1:5">
-      <c r="A138" s="8" t="s">
+      <c r="D137" s="23"/>
+      <c r="E137" s="23"/>
+    </row>
+    <row r="138" s="5" customFormat="1" ht="17.5" spans="1:5">
+      <c r="A138" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="C138" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="D138" s="25"/>
-      <c r="E138" s="25"/>
-    </row>
-    <row r="139" s="7" customFormat="1" ht="135" spans="1:5">
-      <c r="A139" s="8"/>
-      <c r="B139" s="11"/>
-      <c r="C139" s="30" t="s">
+      <c r="D138" s="23"/>
+      <c r="E138" s="23"/>
+    </row>
+    <row r="139" s="5" customFormat="1" ht="135" spans="1:5">
+      <c r="A139" s="6"/>
+      <c r="B139" s="9"/>
+      <c r="C139" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="D139" s="25"/>
-      <c r="E139" s="25"/>
-    </row>
-    <row r="140" s="7" customFormat="1" ht="30" spans="1:5">
-      <c r="A140" s="8" t="s">
+      <c r="D139" s="23"/>
+      <c r="E139" s="23"/>
+    </row>
+    <row r="140" s="5" customFormat="1" ht="30" spans="1:5">
+      <c r="A140" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="C140" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D140" s="25"/>
-      <c r="E140" s="25"/>
-    </row>
-    <row r="141" s="7" customFormat="1" ht="90" spans="1:5">
-      <c r="A141" s="8" t="s">
+      <c r="D140" s="23"/>
+      <c r="E140" s="23"/>
+    </row>
+    <row r="141" s="5" customFormat="1" ht="90" spans="1:5">
+      <c r="A141" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B141" s="11"/>
-      <c r="C141" s="10" t="s">
+      <c r="B141" s="9"/>
+      <c r="C141" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="D141" s="25"/>
-      <c r="E141" s="25"/>
-    </row>
-    <row r="142" s="7" customFormat="1" ht="105" spans="1:5">
-      <c r="A142" s="8"/>
-      <c r="B142" s="11"/>
-      <c r="C142" s="10" t="s">
+      <c r="D141" s="23"/>
+      <c r="E141" s="23"/>
+    </row>
+    <row r="142" s="5" customFormat="1" ht="105" spans="1:5">
+      <c r="A142" s="6"/>
+      <c r="B142" s="9"/>
+      <c r="C142" s="8" t="s">
         <v>235</v>
       </c>
-      <c r="D142" s="25"/>
-      <c r="E142" s="25"/>
-    </row>
-    <row r="143" s="7" customFormat="1" ht="90" spans="1:5">
-      <c r="A143" s="8"/>
-      <c r="B143" s="11"/>
-      <c r="C143" s="10" t="s">
+      <c r="D142" s="23"/>
+      <c r="E142" s="23"/>
+    </row>
+    <row r="143" s="5" customFormat="1" ht="90" spans="1:5">
+      <c r="A143" s="6"/>
+      <c r="B143" s="9"/>
+      <c r="C143" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="D143" s="25"/>
-      <c r="E143" s="25"/>
-    </row>
-    <row r="144" s="7" customFormat="1" ht="17.5" spans="1:5">
-      <c r="A144" s="8"/>
-      <c r="B144" s="11" t="s">
+      <c r="D143" s="23"/>
+      <c r="E143" s="23"/>
+    </row>
+    <row r="144" s="5" customFormat="1" ht="17.5" spans="1:5">
+      <c r="A144" s="6"/>
+      <c r="B144" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="C144" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D144" s="25"/>
-      <c r="E144" s="25"/>
-    </row>
-    <row r="145" s="7" customFormat="1" ht="60" spans="1:5">
-      <c r="A145" s="8"/>
-      <c r="B145" s="11"/>
-      <c r="C145" s="10" t="s">
+      <c r="D144" s="23"/>
+      <c r="E144" s="23"/>
+    </row>
+    <row r="145" s="5" customFormat="1" ht="60" spans="1:5">
+      <c r="A145" s="6"/>
+      <c r="B145" s="9"/>
+      <c r="C145" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D145" s="25"/>
-      <c r="E145" s="25"/>
-    </row>
-    <row r="146" s="7" customFormat="1" ht="60" spans="1:5">
-      <c r="A146" s="8" t="s">
+      <c r="D145" s="23"/>
+      <c r="E145" s="23"/>
+    </row>
+    <row r="146" s="5" customFormat="1" ht="60" spans="1:5">
+      <c r="A146" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B146" s="8"/>
-      <c r="C146" s="10" t="s">
+      <c r="B146" s="6"/>
+      <c r="C146" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="D146" s="25"/>
-      <c r="E146" s="25"/>
-    </row>
-    <row r="147" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A147" s="8"/>
-      <c r="B147" s="8"/>
-      <c r="C147" s="10" t="s">
+      <c r="D146" s="23"/>
+      <c r="E146" s="23"/>
+    </row>
+    <row r="147" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A147" s="6"/>
+      <c r="B147" s="6"/>
+      <c r="C147" s="8" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="148" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A148" s="8"/>
-      <c r="B148" s="8"/>
-      <c r="C148" s="10" t="s">
+    <row r="148" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A148" s="6"/>
+      <c r="B148" s="6"/>
+      <c r="C148" s="8" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="149" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A149" s="8" t="s">
+    <row r="149" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A149" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B149" s="8"/>
-      <c r="C149" s="10" t="s">
+      <c r="B149" s="6"/>
+      <c r="C149" s="8" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="150" s="7" customFormat="1" spans="1:3">
-      <c r="A150" s="8"/>
-      <c r="B150" s="8"/>
-      <c r="C150" s="10" t="s">
+    <row r="150" s="5" customFormat="1" spans="1:3">
+      <c r="A150" s="6"/>
+      <c r="B150" s="6"/>
+      <c r="C150" s="8" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="151" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A151" s="8"/>
-      <c r="B151" s="8"/>
-      <c r="C151" s="10" t="s">
+    <row r="151" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="152" s="7" customFormat="1" ht="75" spans="1:3">
-      <c r="A152" s="8"/>
-      <c r="B152" s="8"/>
-      <c r="C152" s="10" t="s">
+    <row r="152" s="5" customFormat="1" ht="75" spans="1:3">
+      <c r="A152" s="6"/>
+      <c r="B152" s="6"/>
+      <c r="C152" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="153" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A153" s="8" t="s">
+    <row r="153" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A153" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B153" s="8"/>
-      <c r="C153" s="10" t="s">
+      <c r="B153" s="6"/>
+      <c r="C153" s="8" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="154" s="7" customFormat="1" ht="75" spans="1:3">
-      <c r="A154" s="8"/>
-      <c r="B154" s="8" t="s">
+    <row r="154" s="5" customFormat="1" ht="75" spans="1:3">
+      <c r="A154" s="6"/>
+      <c r="B154" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="C154" s="8" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="155" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A155" s="8" t="s">
+    <row r="155" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A155" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B155" s="8" t="s">
+      <c r="B155" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="C155" s="8" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="156" s="7" customFormat="1" ht="165" spans="1:3">
-      <c r="A156" s="8"/>
-      <c r="B156" s="8"/>
-      <c r="C156" s="10" t="s">
+    <row r="156" s="5" customFormat="1" ht="165" spans="1:3">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="8" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="157" s="7" customFormat="1" ht="75" spans="1:3">
-      <c r="A157" s="8"/>
-      <c r="B157" s="8" t="s">
+    <row r="157" s="5" customFormat="1" ht="75" spans="1:3">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="C157" s="8" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="158" s="7" customFormat="1" ht="75" spans="1:3">
-      <c r="A158" s="8"/>
-      <c r="B158" s="8" t="s">
+    <row r="158" s="5" customFormat="1" ht="75" spans="1:3">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="C158" s="8" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="159" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A159" s="8" t="s">
+    <row r="159" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A159" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B159" s="8"/>
-      <c r="C159" s="10" t="s">
+      <c r="B159" s="6"/>
+      <c r="C159" s="8" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="160" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A160" s="8"/>
-      <c r="B160" s="8"/>
-      <c r="C160" s="10" t="s">
+    <row r="160" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A160" s="6"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="8" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="161" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A161" s="8"/>
-      <c r="B161" s="8" t="s">
+    <row r="161" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A161" s="6"/>
+      <c r="B161" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="C161" s="8" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="162" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A162" s="8"/>
-      <c r="B162" s="8"/>
-      <c r="C162" s="10" t="s">
+    <row r="162" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="8" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="163" s="7" customFormat="1" spans="1:3">
-      <c r="A163" s="8"/>
-      <c r="B163" s="8" t="s">
+    <row r="163" s="5" customFormat="1" spans="1:3">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="C163" s="7" t="s">
+      <c r="C163" s="5" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="164" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A164" s="8"/>
-      <c r="B164" s="8"/>
-      <c r="C164" s="10" t="s">
+    <row r="164" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A164" s="6"/>
+      <c r="B164" s="6"/>
+      <c r="C164" s="8" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="165" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A165" s="8"/>
-      <c r="B165" s="8" t="s">
+    <row r="165" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A165" s="6"/>
+      <c r="B165" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="C165" s="8" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="166" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A166" s="8"/>
-      <c r="B166" s="8"/>
-      <c r="C166" s="10" t="s">
+    <row r="166" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A166" s="6"/>
+      <c r="B166" s="6"/>
+      <c r="C166" s="8" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="167" s="7" customFormat="1" spans="1:3">
-      <c r="A167" s="8"/>
-      <c r="B167" s="8" t="s">
+    <row r="167" s="5" customFormat="1" spans="1:3">
+      <c r="A167" s="6"/>
+      <c r="B167" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="C167" s="7" t="s">
+      <c r="C167" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="168" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A168" s="8"/>
-      <c r="B168" s="8"/>
-      <c r="C168" s="10" t="s">
+    <row r="168" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A168" s="6"/>
+      <c r="B168" s="6"/>
+      <c r="C168" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="169" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A169" s="8"/>
-      <c r="B169" s="11" t="s">
+    <row r="169" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A169" s="6"/>
+      <c r="B169" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="C169" s="8" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="170" s="7" customFormat="1" spans="1:3">
-      <c r="A170" s="8" t="s">
+    <row r="170" s="5" customFormat="1" spans="1:3">
+      <c r="A170" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="C170" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="171" s="7" customFormat="1" spans="1:3">
-      <c r="A171" s="8"/>
-      <c r="B171" s="11" t="s">
+    <row r="171" s="5" customFormat="1" spans="1:3">
+      <c r="A171" s="6"/>
+      <c r="B171" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="C171" s="8" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="172" s="7" customFormat="1" spans="1:3">
-      <c r="A172" s="8"/>
-      <c r="B172" s="11" t="s">
+    <row r="172" s="5" customFormat="1" spans="1:3">
+      <c r="A172" s="6"/>
+      <c r="B172" s="9" t="s">
         <v>283</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="C172" s="8" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="173" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A173" s="8" t="s">
+    <row r="173" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A173" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="C173" s="8" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="174" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A174" s="8"/>
-      <c r="B174" s="11" t="s">
+    <row r="174" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A174" s="6"/>
+      <c r="B174" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="C174" s="8" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="175" s="7" customFormat="1" spans="1:3">
-      <c r="A175" s="8"/>
-      <c r="B175" s="11" t="s">
+    <row r="175" s="5" customFormat="1" spans="1:3">
+      <c r="A175" s="6"/>
+      <c r="B175" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="C175" s="8" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="176" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A176" s="8" t="s">
+    <row r="176" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A176" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C176" s="7" t="s">
+      <c r="C176" s="5" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="177" s="7" customFormat="1" spans="1:3">
-      <c r="A177" s="8"/>
-      <c r="B177" s="8" t="s">
+    <row r="177" s="5" customFormat="1" spans="1:3">
+      <c r="A177" s="6"/>
+      <c r="B177" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="C177" s="7" t="s">
+      <c r="C177" s="5" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="178" s="7" customFormat="1" spans="1:3">
-      <c r="A178" s="8"/>
-      <c r="B178" s="8" t="s">
+    <row r="178" s="5" customFormat="1" spans="1:3">
+      <c r="A178" s="6"/>
+      <c r="B178" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="C178" s="7" t="s">
+      <c r="C178" s="5" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="179" s="7" customFormat="1" spans="2:2">
-      <c r="B179" s="8"/>
-    </row>
-    <row r="180" s="7" customFormat="1" spans="2:2">
-      <c r="B180" s="8"/>
-    </row>
-    <row r="181" s="7" customFormat="1" spans="2:2">
-      <c r="B181" s="8"/>
-    </row>
-    <row r="182" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A182" s="10" t="s">
+    <row r="179" s="5" customFormat="1" spans="2:2">
+      <c r="B179" s="6"/>
+    </row>
+    <row r="180" s="5" customFormat="1" spans="2:2">
+      <c r="B180" s="6"/>
+    </row>
+    <row r="181" s="5" customFormat="1" spans="2:2">
+      <c r="B181" s="6"/>
+    </row>
+    <row r="182" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A182" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="B182" s="8"/>
-      <c r="C182" s="10" t="s">
+      <c r="B182" s="6"/>
+      <c r="C182" s="8" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="183" s="7" customFormat="1" spans="1:3">
-      <c r="A183" s="7" t="s">
+    <row r="183" s="5" customFormat="1" spans="1:3">
+      <c r="A183" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="B183" s="8"/>
-      <c r="C183" s="7" t="s">
+      <c r="B183" s="6"/>
+      <c r="C183" s="5" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="184" s="7" customFormat="1" spans="1:3">
-      <c r="A184" s="7" t="s">
+    <row r="184" s="5" customFormat="1" spans="1:3">
+      <c r="A184" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B184" s="8"/>
-      <c r="C184" s="7" t="s">
+      <c r="B184" s="6"/>
+      <c r="C184" s="5" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="185" s="7" customFormat="1" ht="75" spans="1:3">
-      <c r="A185" s="10" t="s">
+    <row r="185" s="5" customFormat="1" ht="75" spans="1:3">
+      <c r="A185" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B185" s="8"/>
-      <c r="C185" s="10" t="s">
+      <c r="B185" s="6"/>
+      <c r="C185" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="186" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A186" s="7" t="s">
+    <row r="186" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A186" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B186" s="8"/>
-      <c r="C186" s="10" t="s">
+      <c r="B186" s="6"/>
+      <c r="C186" s="8" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="187" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A187" s="7" t="s">
+    <row r="187" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A187" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B187" s="8"/>
-      <c r="C187" s="10" t="s">
+      <c r="B187" s="6"/>
+      <c r="C187" s="8" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="188" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A188" s="7" t="s">
+    <row r="188" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A188" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B188" s="8"/>
-      <c r="C188" s="10" t="s">
+      <c r="B188" s="6"/>
+      <c r="C188" s="8" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="189" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A189" s="7" t="s">
+    <row r="189" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A189" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B189" s="8"/>
-      <c r="C189" s="10" t="s">
+      <c r="B189" s="6"/>
+      <c r="C189" s="8" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="190" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A190" s="7" t="s">
+    <row r="190" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A190" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="B190" s="8"/>
-      <c r="C190" s="10" t="s">
+      <c r="B190" s="6"/>
+      <c r="C190" s="8" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="191" s="7" customFormat="1" spans="2:3">
-      <c r="B191" s="8"/>
-      <c r="C191" s="10"/>
-    </row>
-    <row r="192" s="7" customFormat="1" spans="1:3">
-      <c r="A192" s="24" t="s">
+    <row r="191" s="5" customFormat="1" spans="2:3">
+      <c r="B191" s="6"/>
+      <c r="C191" s="8"/>
+    </row>
+    <row r="192" s="5" customFormat="1" spans="1:3">
+      <c r="A192" s="22" t="s">
         <v>316</v>
       </c>
-      <c r="B192" s="24"/>
-      <c r="C192" s="24"/>
-    </row>
-    <row r="193" s="7" customFormat="1" spans="1:3">
-      <c r="A193" s="7" t="s">
+      <c r="B192" s="22"/>
+      <c r="C192" s="22"/>
+    </row>
+    <row r="193" s="5" customFormat="1" spans="1:3">
+      <c r="A193" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B193" s="8"/>
-      <c r="C193" s="7" t="s">
+      <c r="B193" s="6"/>
+      <c r="C193" s="5" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="194" s="7" customFormat="1" spans="1:3">
-      <c r="A194" s="7" t="s">
+    <row r="194" s="5" customFormat="1" spans="1:3">
+      <c r="A194" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="B194" s="8"/>
-      <c r="C194" s="7" t="s">
+      <c r="B194" s="6"/>
+      <c r="C194" s="5" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="195" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A195" s="7" t="s">
+    <row r="195" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A195" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="B195" s="8"/>
-      <c r="C195" s="10" t="s">
+      <c r="B195" s="6"/>
+      <c r="C195" s="8" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="196" s="7" customFormat="1" spans="2:2">
-      <c r="B196" s="8"/>
-    </row>
-    <row r="197" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A197" s="7" t="s">
+    <row r="196" s="5" customFormat="1" spans="2:2">
+      <c r="B196" s="6"/>
+    </row>
+    <row r="197" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A197" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="B197" s="8" t="s">
+      <c r="B197" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="C197" s="10" t="s">
+      <c r="C197" s="8" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="198" s="7" customFormat="1" spans="2:2">
-      <c r="B198" s="8"/>
-    </row>
-    <row r="199" s="7" customFormat="1" spans="2:2">
-      <c r="B199" s="8"/>
-    </row>
-    <row r="200" s="7" customFormat="1" spans="2:2">
-      <c r="B200" s="8"/>
-    </row>
-    <row r="201" s="7" customFormat="1" ht="21" spans="1:3">
-      <c r="A201" s="26" t="s">
+    <row r="198" s="5" customFormat="1" spans="2:2">
+      <c r="B198" s="6"/>
+    </row>
+    <row r="199" s="5" customFormat="1" spans="1:2">
+      <c r="A199" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="B201" s="26"/>
-      <c r="C201" s="26"/>
-    </row>
-    <row r="202" s="7" customFormat="1" ht="120" spans="1:3">
-      <c r="A202" s="27" t="s">
+      <c r="B199" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B202" s="8"/>
-      <c r="C202" s="10" t="s">
+    </row>
+    <row r="200" s="5" customFormat="1" ht="30" spans="2:3">
+      <c r="B200" s="6" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="203" s="7" customFormat="1" spans="1:3">
-      <c r="A203" s="7" t="s">
+      <c r="C200" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="B203" s="8"/>
-      <c r="C203" s="7" t="s">
+    </row>
+    <row r="201" s="5" customFormat="1" spans="2:2">
+      <c r="B201" s="6"/>
+    </row>
+    <row r="202" s="5" customFormat="1" spans="2:2">
+      <c r="B202" s="6"/>
+    </row>
+    <row r="203" s="5" customFormat="1" ht="21" spans="1:3">
+      <c r="A203" s="24" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="204" s="7" customFormat="1" spans="1:3">
-      <c r="A204" s="7" t="s">
+      <c r="B203" s="24"/>
+      <c r="C203" s="24"/>
+    </row>
+    <row r="204" s="5" customFormat="1" ht="120" spans="1:3">
+      <c r="A204" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="B204" s="6"/>
+      <c r="C204" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="205" s="5" customFormat="1" spans="1:3">
+      <c r="A205" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B205" s="6"/>
+      <c r="C205" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="206" s="5" customFormat="1" spans="1:3">
+      <c r="A206" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B204" s="8"/>
-      <c r="C204" s="7" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="205" s="7" customFormat="1" spans="2:2">
-      <c r="B205" s="8"/>
-    </row>
-    <row r="206" s="7" customFormat="1" ht="90" spans="1:3">
-      <c r="A206" s="24" t="s">
-        <v>332</v>
-      </c>
-      <c r="B206" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="C206" s="10" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="207" s="7" customFormat="1" spans="1:3">
-      <c r="A207" s="24"/>
-      <c r="B207" s="8" t="s">
+      <c r="B206" s="6"/>
+      <c r="C206" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="C207" s="7" t="s">
+    </row>
+    <row r="207" s="5" customFormat="1" spans="2:2">
+      <c r="B207" s="6"/>
+    </row>
+    <row r="208" s="5" customFormat="1" ht="90" spans="1:3">
+      <c r="A208" s="22" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="208" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A208" s="24"/>
-      <c r="B208" s="11" t="s">
+      <c r="B208" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="C208" s="10" t="s">
+      <c r="C208" s="8" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="209" s="7" customFormat="1" ht="150" spans="1:3">
-      <c r="A209" s="24"/>
-      <c r="B209" s="11"/>
-      <c r="C209" s="10" t="s">
+    <row r="209" s="5" customFormat="1" spans="1:3">
+      <c r="A209" s="22"/>
+      <c r="B209" s="6" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="210" s="7" customFormat="1" spans="1:3">
-      <c r="A210" s="24"/>
-      <c r="B210" s="11"/>
-      <c r="C210" s="10" t="s">
+      <c r="C209" s="5" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="211" s="7" customFormat="1" ht="150" spans="1:3">
-      <c r="A211" s="24"/>
-      <c r="B211" s="11"/>
-      <c r="C211" s="10" t="s">
+    <row r="210" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A210" s="22"/>
+      <c r="B210" s="9" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="212" s="7" customFormat="1" ht="105" spans="1:3">
-      <c r="A212" s="24"/>
-      <c r="B212" s="11"/>
-      <c r="C212" s="10" t="s">
+      <c r="C210" s="8" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="213" s="7" customFormat="1" ht="90" spans="1:3">
-      <c r="A213" s="24"/>
-      <c r="B213" s="11" t="s">
+    <row r="211" s="5" customFormat="1" ht="150" spans="1:3">
+      <c r="A211" s="22"/>
+      <c r="B211" s="9"/>
+      <c r="C211" s="8" t="s">
         <v>343</v>
       </c>
-      <c r="C213" s="10" t="s">
+    </row>
+    <row r="212" s="5" customFormat="1" spans="1:3">
+      <c r="A212" s="22"/>
+      <c r="B212" s="9"/>
+      <c r="C212" s="8" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="214" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A214" s="24"/>
-      <c r="B214" s="11" t="s">
+    <row r="213" s="5" customFormat="1" ht="150" spans="1:3">
+      <c r="A213" s="22"/>
+      <c r="B213" s="9"/>
+      <c r="C213" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C214" s="10" t="s">
+    </row>
+    <row r="214" s="5" customFormat="1" ht="105" spans="1:3">
+      <c r="A214" s="22"/>
+      <c r="B214" s="9"/>
+      <c r="C214" s="8" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="215" s="7" customFormat="1" ht="105" spans="1:3">
-      <c r="A215" s="24"/>
-      <c r="B215" s="11"/>
-      <c r="C215" s="10" t="s">
+    <row r="215" s="5" customFormat="1" ht="90" spans="1:3">
+      <c r="A215" s="22"/>
+      <c r="B215" s="9" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="216" s="7" customFormat="1" spans="1:3">
-      <c r="A216" s="24"/>
-      <c r="B216" s="11"/>
-      <c r="C216" s="10"/>
-    </row>
-    <row r="217" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A217" s="8" t="s">
+      <c r="C215" s="8" t="s">
         <v>348</v>
       </c>
-      <c r="B217" s="11" t="s">
+    </row>
+    <row r="216" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A216" s="22"/>
+      <c r="B216" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="C216" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="217" s="5" customFormat="1" ht="105" spans="1:3">
+      <c r="A217" s="22"/>
+      <c r="B217" s="9"/>
+      <c r="C217" s="8" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="218" s="5" customFormat="1" spans="1:3">
+      <c r="A218" s="22"/>
+      <c r="B218" s="9"/>
+      <c r="C218" s="8"/>
+    </row>
+    <row r="219" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A219" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B219" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C217" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="218" s="7" customFormat="1" ht="30" spans="1:3">
-      <c r="A218" s="8"/>
-      <c r="B218" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="C218" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="219" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A219" s="8"/>
-      <c r="B219" s="11" t="s">
+      <c r="C219" s="8" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="220" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A220" s="6"/>
+      <c r="B220" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C220" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="221" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A221" s="6"/>
+      <c r="B221" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C219" s="10" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="220" s="7" customFormat="1" spans="1:3">
-      <c r="A220" s="8"/>
-      <c r="B220" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="C220" s="10" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="221" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A221" s="8"/>
-      <c r="B221" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="C221" s="10" t="s">
+      <c r="C221" s="8" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="222" s="7" customFormat="1" spans="1:3">
-      <c r="A222" s="8"/>
-      <c r="B222" s="11" t="s">
+    <row r="222" s="5" customFormat="1" spans="1:3">
+      <c r="A222" s="6"/>
+      <c r="B222" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="C222" s="10" t="s">
+      <c r="C222" s="8" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="223" s="7" customFormat="1" spans="1:3">
-      <c r="A223" s="8"/>
-      <c r="B223" s="11" t="s">
+    <row r="223" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A223" s="6"/>
+      <c r="B223" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C223" s="10" t="s">
+      <c r="C223" s="8" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="224" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A224" s="8"/>
-      <c r="B224" s="11" t="s">
+    <row r="224" s="5" customFormat="1" spans="1:3">
+      <c r="A224" s="6"/>
+      <c r="B224" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="C224" s="10" t="s">
+      <c r="C224" s="8" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="225" s="7" customFormat="1" ht="105" spans="1:3">
-      <c r="A225" s="7" t="s">
+    <row r="225" s="5" customFormat="1" spans="1:3">
+      <c r="A225" s="6"/>
+      <c r="B225" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B225" s="8"/>
-      <c r="C225" s="10" t="s">
+      <c r="C225" s="8" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="226" s="7" customFormat="1" ht="180" spans="1:3">
-      <c r="A226" s="7" t="s">
+    <row r="226" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A226" s="6"/>
+      <c r="B226" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B226" s="8"/>
-      <c r="C226" s="10" t="s">
+      <c r="C226" s="8" t="s">
         <v>366</v>
       </c>
     </row>
-    <row r="227" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A227" s="7" t="s">
+    <row r="227" s="5" customFormat="1" ht="105" spans="1:3">
+      <c r="A227" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B227" s="8"/>
-      <c r="C227" s="10" t="s">
+      <c r="B227" s="6"/>
+      <c r="C227" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="228" s="7" customFormat="1" ht="210" spans="1:3">
-      <c r="A228" s="7" t="s">
+    <row r="228" s="5" customFormat="1" ht="180" spans="1:3">
+      <c r="A228" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="B228" s="8"/>
-      <c r="C228" s="10" t="s">
+      <c r="B228" s="6"/>
+      <c r="C228" s="8" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="229" s="7" customFormat="1" ht="60" spans="1:3">
-      <c r="A229" s="7" t="s">
+    <row r="229" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A229" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="B229" s="8"/>
-      <c r="C229" s="10" t="s">
+      <c r="B229" s="6"/>
+      <c r="C229" s="8" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="230" s="7" customFormat="1" spans="2:3">
-      <c r="B230" s="8"/>
-      <c r="C230" s="10"/>
-    </row>
-    <row r="231" s="7" customFormat="1" spans="2:2">
-      <c r="B231" s="8"/>
-    </row>
-    <row r="232" s="7" customFormat="1" spans="2:2">
-      <c r="B232" s="8"/>
-    </row>
-    <row r="233" s="7" customFormat="1" spans="1:3">
+    <row r="230" s="5" customFormat="1" ht="210" spans="1:3">
+      <c r="A230" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B230" s="6"/>
+      <c r="C230" s="8" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="231" s="5" customFormat="1" ht="60" spans="1:3">
+      <c r="A231" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B231" s="6"/>
+      <c r="C231" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="232" s="5" customFormat="1" spans="2:3">
+      <c r="B232" s="6"/>
+      <c r="C232" s="8"/>
+    </row>
+    <row r="233" s="5" customFormat="1" spans="1:3">
       <c r="A233" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="B233" s="8"/>
-      <c r="C233" s="7" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="234" s="7" customFormat="1" ht="30" spans="1:3">
+        <v>377</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="C233" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="234" s="5" customFormat="1" spans="1:3">
       <c r="A234" s="11"/>
-      <c r="B234" s="8"/>
-      <c r="C234" s="10" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="235" s="7" customFormat="1" spans="2:2">
-      <c r="B235" s="8"/>
-    </row>
-    <row r="236" s="7" customFormat="1" ht="105" spans="1:3">
-      <c r="A236" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B236" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="C236" s="12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="237" s="7" customFormat="1" spans="2:2">
-      <c r="B237" s="8"/>
-    </row>
-    <row r="238" s="7" customFormat="1" ht="45" spans="1:3">
-      <c r="A238" s="7" t="s">
-        <v>379</v>
-      </c>
-      <c r="B238" s="8"/>
-      <c r="C238" s="10" t="s">
+      <c r="B234" s="6" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="240" ht="30" spans="1:3">
-      <c r="A240" s="7" t="s">
+      <c r="C234" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C240" s="10" t="s">
+    </row>
+    <row r="235" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A235" s="11"/>
+      <c r="B235" s="9" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="241" ht="45" spans="1:3">
-      <c r="A241" s="13" t="s">
+      <c r="C235" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="B241" s="28" t="s">
+    </row>
+    <row r="236" s="5" customFormat="1" spans="2:2">
+      <c r="B236" s="6"/>
+    </row>
+    <row r="237" s="5" customFormat="1" spans="2:2">
+      <c r="B237" s="6"/>
+    </row>
+    <row r="238" s="5" customFormat="1" spans="1:3">
+      <c r="A238" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="B238" s="6"/>
+      <c r="C238" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="239" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A239" s="9"/>
+      <c r="B239" s="6"/>
+      <c r="C239" s="8" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="240" s="5" customFormat="1" spans="2:2">
+      <c r="B240" s="6"/>
+    </row>
+    <row r="241" s="5" customFormat="1" ht="105" spans="1:3">
+      <c r="A241" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="C241" s="10" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="242" s="5" customFormat="1" spans="2:2">
+      <c r="B242" s="6"/>
+    </row>
+    <row r="243" s="5" customFormat="1" ht="45" spans="1:3">
+      <c r="A243" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B243" s="6"/>
+      <c r="C243" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="245" ht="30" spans="1:3">
+      <c r="A245" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C245" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="246" ht="45" spans="1:3">
+      <c r="A246" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="B246" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C241" s="29" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="242" ht="165" spans="1:3">
-      <c r="A242" s="13"/>
-      <c r="B242" s="28"/>
-      <c r="C242" s="29" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="243" spans="1:3">
-      <c r="A243" s="13"/>
-      <c r="C243" s="7" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="244" ht="30" spans="1:3">
-      <c r="A244" s="13"/>
-      <c r="B244" s="28" t="s">
-        <v>387</v>
-      </c>
-      <c r="C244" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="245" ht="30" spans="1:3">
-      <c r="A245" s="13"/>
-      <c r="B245" s="28"/>
-      <c r="C245" s="12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="246" ht="30" spans="1:3">
-      <c r="A246" s="13"/>
-      <c r="B246" s="28" t="s">
-        <v>390</v>
-      </c>
-      <c r="C246" s="12" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="247" ht="30" spans="1:3">
-      <c r="A247" s="13"/>
-      <c r="B247" s="28"/>
-      <c r="C247" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="248" ht="150" spans="1:3">
-      <c r="A248" s="13"/>
-      <c r="B248" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="C248" s="12" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="249" ht="60" spans="1:3">
-      <c r="A249" s="13"/>
-      <c r="B249" s="11" t="s">
+      <c r="C246" s="27" t="s">
         <v>395</v>
       </c>
+    </row>
+    <row r="247" ht="165" spans="1:3">
+      <c r="A247" s="11"/>
+      <c r="B247" s="26"/>
+      <c r="C247" s="27" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="11"/>
+      <c r="C248" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="249" ht="30" spans="1:3">
+      <c r="A249" s="11"/>
+      <c r="B249" s="26" t="s">
+        <v>398</v>
+      </c>
       <c r="C249" s="10" t="s">
-        <v>396</v>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="250" ht="30" spans="1:3">
+      <c r="A250" s="11"/>
+      <c r="B250" s="26"/>
+      <c r="C250" s="10" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="251" ht="30" spans="1:3">
+      <c r="A251" s="11"/>
+      <c r="B251" s="26" t="s">
+        <v>401</v>
+      </c>
+      <c r="C251" s="10" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="252" ht="30" spans="1:3">
+      <c r="A252" s="11"/>
+      <c r="B252" s="26"/>
+      <c r="C252" s="10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="253" ht="150" spans="1:3">
+      <c r="A253" s="11"/>
+      <c r="B253" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="C253" s="10" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="254" ht="60" spans="1:3">
+      <c r="A254" s="11"/>
+      <c r="B254" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="65">
+  <mergeCells count="66">
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="A100:C100"/>
     <mergeCell ref="A101:B101"/>
     <mergeCell ref="A192:C192"/>
-    <mergeCell ref="A201:C201"/>
+    <mergeCell ref="A203:C203"/>
     <mergeCell ref="A7:A8"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A11:A14"/>
@@ -13345,10 +13477,11 @@
     <mergeCell ref="A170:A172"/>
     <mergeCell ref="A173:A175"/>
     <mergeCell ref="A176:A178"/>
-    <mergeCell ref="A206:A213"/>
-    <mergeCell ref="A217:A224"/>
-    <mergeCell ref="A233:A234"/>
-    <mergeCell ref="A241:A249"/>
+    <mergeCell ref="A208:A215"/>
+    <mergeCell ref="A219:A226"/>
+    <mergeCell ref="A233:A235"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="A246:A254"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B39:B40"/>
@@ -13371,11 +13504,11 @@
     <mergeCell ref="B163:B164"/>
     <mergeCell ref="B165:B166"/>
     <mergeCell ref="B167:B168"/>
-    <mergeCell ref="B208:B212"/>
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="B241:B242"/>
-    <mergeCell ref="B244:B245"/>
+    <mergeCell ref="B210:B214"/>
+    <mergeCell ref="B216:B217"/>
     <mergeCell ref="B246:B247"/>
+    <mergeCell ref="B249:B250"/>
+    <mergeCell ref="B251:B252"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C1" r:id="rId2" display="https://www.nowcoder.com/discuss/637486?type=post&amp;order=time&amp;pos=&amp;page=1&amp;ncTraceId=&amp;channel=-1&amp;source_id=search_post_nctrack"/>
@@ -13404,61 +13537,61 @@
   <cols>
     <col min="1" max="1" width="11.3363636363636" customWidth="1"/>
     <col min="2" max="2" width="13.7818181818182" customWidth="1"/>
-    <col min="3" max="3" width="120.218181818182" style="3" customWidth="1"/>
+    <col min="3" max="3" width="120.218181818182" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="42" spans="1:3">
       <c r="A1" t="s">
-        <v>397</v>
+        <v>408</v>
       </c>
       <c r="B1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>399</v>
+        <v>409</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>410</v>
       </c>
     </row>
     <row r="2" ht="28" spans="2:3">
       <c r="B2" t="s">
-        <v>400</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>401</v>
+        <v>411</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>403</v>
+      <c r="A23" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>414</v>
       </c>
     </row>
     <row r="24" ht="28" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="C24" s="4" t="s">
-        <v>404</v>
+      <c r="A24" s="1"/>
+      <c r="C24" s="3" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="25" ht="42" spans="1:3">
-      <c r="A25" s="2"/>
+      <c r="A25" s="1"/>
       <c r="B25" t="s">
-        <v>405</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>406</v>
+        <v>416</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2"/>
+      <c r="A26" s="1"/>
       <c r="B26" t="s">
-        <v>407</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>408</v>
+        <v>418</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -13480,7 +13613,7 @@
   <sheetPr/>
   <dimension ref="A2:C41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C40" workbookViewId="0">
+    <sheetView topLeftCell="C40" workbookViewId="0">
       <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
@@ -13493,140 +13626,140 @@
   <sheetData>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="B2" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="C2" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>423</v>
       </c>
       <c r="C3" t="s">
-        <v>413</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="C4" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:3">
-      <c r="A8" s="2" t="s">
-        <v>416</v>
+      <c r="A8" s="1" t="s">
+        <v>427</v>
       </c>
       <c r="B8" t="s">
-        <v>417</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>418</v>
+        <v>428</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>419</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>420</v>
+        <v>430</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="10" ht="42" spans="1:3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>421</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>422</v>
+        <v>432</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
     <row r="11" ht="42" spans="1:3">
-      <c r="A11" s="2"/>
+      <c r="A11" s="1"/>
       <c r="B11" t="s">
-        <v>423</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>424</v>
+        <v>434</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="1"/>
       <c r="B12" t="s">
-        <v>425</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>426</v>
+        <v>436</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="1"/>
       <c r="B13" t="s">
-        <v>427</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>428</v>
+        <v>438</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="15" ht="70" spans="1:3">
       <c r="A15" t="s">
-        <v>429</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>430</v>
+        <v>440</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>441</v>
       </c>
     </row>
     <row r="16" ht="28" spans="2:3">
       <c r="B16" t="s">
-        <v>431</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>432</v>
+        <v>442</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="34" ht="42" spans="2:3">
       <c r="B34" t="s">
-        <v>433</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>434</v>
+        <v>444</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="2:3">
       <c r="B35" t="s">
-        <v>435</v>
+        <v>446</v>
       </c>
       <c r="C35" t="s">
-        <v>436</v>
+        <v>447</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>437</v>
+        <v>448</v>
       </c>
       <c r="C36" t="s">
-        <v>438</v>
+        <v>449</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="B37" t="s">
-        <v>439</v>
+        <v>450</v>
       </c>
       <c r="C37" t="s">
-        <v>440</v>
+        <v>451</v>
       </c>
     </row>
     <row r="38" ht="202" customHeight="1" spans="2:3">
       <c r="B38" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="C38" t="str">
         <f>_xlfn.DISPIMG("ID_04954288AF654B029A31CD001B4BD410",1)</f>
@@ -13635,7 +13768,7 @@
     </row>
     <row r="39" ht="285" customHeight="1" spans="2:3">
       <c r="B39" s="1" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="C39" t="str">
         <f>_xlfn.DISPIMG("ID_1E81F57FE7BE4C59B2051F5BF3D3A247",1)</f>
@@ -13644,13 +13777,13 @@
     </row>
     <row r="40" ht="47" customHeight="1" spans="2:3">
       <c r="B40" s="1"/>
-      <c r="C40" s="5" t="s">
-        <v>443</v>
+      <c r="C40" s="2" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="41" ht="256" customHeight="1" spans="2:3">
       <c r="B41" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="C41" t="str">
         <f>_xlfn.DISPIMG("ID_FD94D2A12C394C12B64D991B5FB4C3CD",1)</f>

--- a/数据库.xlsx
+++ b/数据库.xlsx
@@ -7535,6 +7535,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>Xtrabackup是由percona开源的免费数据库</t>
     </r>
     <r>
@@ -8569,6 +8574,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">mysql -u root -p
 use database_name;
 </t>
@@ -11290,8 +11300,8 @@
   <sheetPr/>
   <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C193" workbookViewId="0">
-      <selection activeCell="C201" sqref="C201"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199:A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -13014,14 +13024,15 @@
       <c r="B198" s="6"/>
     </row>
     <row r="199" s="5" customFormat="1" spans="1:2">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="11" t="s">
         <v>326</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="200" s="5" customFormat="1" ht="30" spans="2:3">
+    <row r="200" s="5" customFormat="1" ht="30" spans="1:3">
+      <c r="A200" s="11"/>
       <c r="B200" s="6" t="s">
         <v>328</v>
       </c>
@@ -13442,7 +13453,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="66">
+  <mergeCells count="67">
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="A87:C87"/>
     <mergeCell ref="A100:C100"/>
@@ -13477,6 +13488,7 @@
     <mergeCell ref="A170:A172"/>
     <mergeCell ref="A173:A175"/>
     <mergeCell ref="A176:A178"/>
+    <mergeCell ref="A199:A200"/>
     <mergeCell ref="A208:A215"/>
     <mergeCell ref="A219:A226"/>
     <mergeCell ref="A233:A235"/>

--- a/数据库.xlsx
+++ b/数据库.xlsx
@@ -4830,7 +4830,8 @@
     <t>查看表结构</t>
   </si>
   <si>
-    <t>desc tablename;</t>
+    <t>desc/describe tablename;
+select * from information_schema.columns where table_schema='xx' and table_name='xx';</t>
   </si>
   <si>
     <t>default</t>
@@ -10606,7 +10607,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11251565" y="59531250"/>
+          <a:off x="11251565" y="59721750"/>
           <a:ext cx="2175510" cy="2127250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10648,7 +10649,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13655675" y="72380475"/>
+          <a:off x="13655675" y="72570975"/>
           <a:ext cx="2588260" cy="3605530"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10690,7 +10691,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9731375" y="73914000"/>
+          <a:off x="9731375" y="74104500"/>
           <a:ext cx="4081780" cy="11848465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10732,7 +10733,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13701395" y="75933300"/>
+          <a:off x="13701395" y="76123800"/>
           <a:ext cx="1668780" cy="8480425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10774,7 +10775,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11242040" y="68929250"/>
+          <a:off x="11242040" y="69119750"/>
           <a:ext cx="2555875" cy="2973705"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10816,7 +10817,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11679555" y="85838030"/>
+          <a:off x="11679555" y="86028530"/>
           <a:ext cx="3690620" cy="6402070"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10858,7 +10859,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11740515" y="92232480"/>
+          <a:off x="11740515" y="92422980"/>
           <a:ext cx="3629660" cy="3596640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11300,8 +11301,8 @@
   <sheetPr/>
   <dimension ref="A1:E254"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A199" sqref="A199:A200"/>
+    <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -12239,7 +12240,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="110" s="5" customFormat="1" spans="1:3">
+    <row r="110" s="5" customFormat="1" ht="30" spans="1:3">
       <c r="A110" s="6" t="s">
         <v>178</v>
       </c>
